--- a/record/601127.SH_20250225/prediction_results.xlsx
+++ b/record/601127.SH_20250225/prediction_results.xlsx
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.03</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>148.48</v>
+        <v>128.31</v>
       </c>
       <c r="D2" t="n">
-        <v>49.24</v>
+        <v>89.39</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>98.11</v>
       </c>
       <c r="C3" t="n">
-        <v>139.38</v>
+        <v>128.48</v>
       </c>
       <c r="D3" t="n">
-        <v>51.29</v>
+        <v>90.56999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.94</v>
+        <v>97.92</v>
       </c>
       <c r="C4" t="n">
-        <v>136.52</v>
+        <v>130.18</v>
       </c>
       <c r="D4" t="n">
-        <v>51.48</v>
+        <v>89.98</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.91</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>142.95</v>
+        <v>130.94</v>
       </c>
       <c r="D5" t="n">
-        <v>51.91</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.04000000000001</v>
+        <v>97.87</v>
       </c>
       <c r="C6" t="n">
-        <v>142.31</v>
+        <v>131.72</v>
       </c>
       <c r="D6" t="n">
-        <v>52.31</v>
+        <v>87.94</v>
       </c>
     </row>
     <row r="7">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.45</v>
+        <v>97.59</v>
       </c>
       <c r="C7" t="n">
-        <v>147.37</v>
+        <v>133.65</v>
       </c>
       <c r="D7" t="n">
-        <v>52.98</v>
+        <v>84.81</v>
       </c>
     </row>
     <row r="8">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.61</v>
+        <v>97.11</v>
       </c>
       <c r="C8" t="n">
-        <v>146.16</v>
+        <v>129.67</v>
       </c>
       <c r="D8" t="n">
-        <v>53.6</v>
+        <v>82.86</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.72</v>
+        <v>96.56</v>
       </c>
       <c r="C9" t="n">
-        <v>143.28</v>
+        <v>128.81</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.54000000000001</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>139.3</v>
+        <v>123.16</v>
       </c>
       <c r="D10" t="n">
-        <v>54.98</v>
+        <v>83.02</v>
       </c>
     </row>
     <row r="11">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.55</v>
+        <v>95.81999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>138.61</v>
+        <v>121.71</v>
       </c>
       <c r="D11" t="n">
-        <v>55.29</v>
+        <v>82.01000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.48999999999999</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>135.85</v>
+        <v>121.62</v>
       </c>
       <c r="D12" t="n">
-        <v>55.79</v>
+        <v>81.33</v>
       </c>
     </row>
     <row r="13">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.59</v>
+        <v>95.37</v>
       </c>
       <c r="C13" t="n">
-        <v>136.66</v>
+        <v>121.4</v>
       </c>
       <c r="D13" t="n">
-        <v>55.97</v>
+        <v>79.94</v>
       </c>
     </row>
     <row r="14">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.42</v>
+        <v>95.41</v>
       </c>
       <c r="C14" t="n">
-        <v>132.84</v>
+        <v>122.94</v>
       </c>
       <c r="D14" t="n">
-        <v>56.34</v>
+        <v>80.84</v>
       </c>
     </row>
     <row r="15">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.22</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>137.48</v>
+        <v>127.04</v>
       </c>
       <c r="D15" t="n">
-        <v>56.54</v>
+        <v>81.22</v>
       </c>
     </row>
     <row r="16">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.15000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>144.72</v>
+        <v>129.19</v>
       </c>
       <c r="D16" t="n">
-        <v>56.3</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="17">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79.2</v>
+        <v>96.42</v>
       </c>
       <c r="C17" t="n">
-        <v>146.32</v>
+        <v>131.95</v>
       </c>
       <c r="D17" t="n">
-        <v>56.12</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>79.15000000000001</v>
+        <v>96.62</v>
       </c>
       <c r="C18" t="n">
-        <v>147.68</v>
+        <v>131.65</v>
       </c>
       <c r="D18" t="n">
-        <v>56.08</v>
+        <v>77.93000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.97</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>145.87</v>
+        <v>130.72</v>
       </c>
       <c r="D19" t="n">
-        <v>55.78</v>
+        <v>78.06999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78.77</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>150.36</v>
+        <v>131.48</v>
       </c>
       <c r="D20" t="n">
-        <v>55.11</v>
+        <v>78.39</v>
       </c>
     </row>
     <row r="21">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78.93000000000001</v>
+        <v>97.27</v>
       </c>
       <c r="C21" t="n">
-        <v>153.4</v>
+        <v>128.99</v>
       </c>
       <c r="D21" t="n">
-        <v>55.23</v>
+        <v>76.23</v>
       </c>
     </row>
     <row r="22">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.95999999999999</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>149.39</v>
+        <v>127.08</v>
       </c>
       <c r="D22" t="n">
-        <v>55.69</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="23">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.75</v>
+        <v>96.94</v>
       </c>
       <c r="C23" t="n">
-        <v>140.1</v>
+        <v>126.75</v>
       </c>
       <c r="D23" t="n">
-        <v>55.74</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="24">
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.61</v>
+        <v>97</v>
       </c>
       <c r="C24" t="n">
-        <v>140.6</v>
+        <v>128.51</v>
       </c>
       <c r="D24" t="n">
-        <v>55.68</v>
+        <v>76.13</v>
       </c>
     </row>
     <row r="25">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.52</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>145.95</v>
+        <v>130.4</v>
       </c>
       <c r="D25" t="n">
-        <v>55.7</v>
+        <v>75.69</v>
       </c>
     </row>
     <row r="26">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.63</v>
+        <v>97.27</v>
       </c>
       <c r="C26" t="n">
-        <v>144.99</v>
+        <v>130.71</v>
       </c>
       <c r="D26" t="n">
-        <v>55.61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.03</v>
+        <v>97.08</v>
       </c>
       <c r="C27" t="n">
-        <v>149.38</v>
+        <v>132.18</v>
       </c>
       <c r="D27" t="n">
-        <v>55.62</v>
+        <v>72.75</v>
       </c>
     </row>
     <row r="28">
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.15000000000001</v>
+        <v>96.67</v>
       </c>
       <c r="C28" t="n">
-        <v>148.88</v>
+        <v>127.46</v>
       </c>
       <c r="D28" t="n">
-        <v>55.8</v>
+        <v>71.58</v>
       </c>
     </row>
     <row r="29">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.23</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>144.94</v>
+        <v>127.51</v>
       </c>
       <c r="D29" t="n">
-        <v>55.99</v>
+        <v>71.38</v>
       </c>
     </row>
     <row r="30">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79.01000000000001</v>
+        <v>95.83</v>
       </c>
       <c r="C30" t="n">
-        <v>140.11</v>
+        <v>121.81</v>
       </c>
       <c r="D30" t="n">
-        <v>56.71</v>
+        <v>72.65000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.01000000000001</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>139.42</v>
+        <v>120.58</v>
       </c>
       <c r="D31" t="n">
-        <v>56.79</v>
+        <v>72.2</v>
       </c>
     </row>
   </sheetData>
@@ -995,13 +995,13 @@
         <v>45125</v>
       </c>
       <c r="B2" t="n">
-        <v>39.72</v>
+        <v>34.76</v>
       </c>
       <c r="C2" t="n">
-        <v>27.34</v>
+        <v>21.13</v>
       </c>
       <c r="D2" t="n">
-        <v>23.76</v>
+        <v>20.78</v>
       </c>
       <c r="E2" t="n">
         <v>25.31</v>
@@ -1012,13 +1012,13 @@
         <v>45126</v>
       </c>
       <c r="B3" t="n">
-        <v>38.53</v>
+        <v>34.55</v>
       </c>
       <c r="C3" t="n">
-        <v>21.33</v>
+        <v>18.73</v>
       </c>
       <c r="D3" t="n">
-        <v>23.38</v>
+        <v>20.3</v>
       </c>
       <c r="E3" t="n">
         <v>24.82</v>
@@ -1029,13 +1029,13 @@
         <v>45127</v>
       </c>
       <c r="B4" t="n">
-        <v>37.51</v>
+        <v>34.12</v>
       </c>
       <c r="C4" t="n">
-        <v>23.49</v>
+        <v>14.14</v>
       </c>
       <c r="D4" t="n">
-        <v>23.18</v>
+        <v>20.44</v>
       </c>
       <c r="E4" t="n">
         <v>25.4</v>
@@ -1046,13 +1046,13 @@
         <v>45128</v>
       </c>
       <c r="B5" t="n">
-        <v>36.29</v>
+        <v>33.85</v>
       </c>
       <c r="C5" t="n">
-        <v>29.92</v>
+        <v>16.46</v>
       </c>
       <c r="D5" t="n">
-        <v>23.27</v>
+        <v>21.08</v>
       </c>
       <c r="E5" t="n">
         <v>27.94</v>
@@ -1063,13 +1063,13 @@
         <v>45131</v>
       </c>
       <c r="B6" t="n">
-        <v>33.73</v>
+        <v>34.27</v>
       </c>
       <c r="C6" t="n">
-        <v>30.69</v>
+        <v>22.72</v>
       </c>
       <c r="D6" t="n">
-        <v>24.18</v>
+        <v>22.21</v>
       </c>
       <c r="E6" t="n">
         <v>29.4</v>
@@ -1080,13 +1080,13 @@
         <v>45132</v>
       </c>
       <c r="B7" t="n">
-        <v>30.87</v>
+        <v>35.15</v>
       </c>
       <c r="C7" t="n">
-        <v>23.99</v>
+        <v>22.12</v>
       </c>
       <c r="D7" t="n">
-        <v>24.96</v>
+        <v>22.27</v>
       </c>
       <c r="E7" t="n">
         <v>30.65</v>
@@ -1097,13 +1097,13 @@
         <v>45133</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2</v>
+        <v>36.19</v>
       </c>
       <c r="C8" t="n">
-        <v>24.51</v>
+        <v>16.63</v>
       </c>
       <c r="D8" t="n">
-        <v>25.88</v>
+        <v>22.04</v>
       </c>
       <c r="E8" t="n">
         <v>33.72</v>
@@ -1114,13 +1114,13 @@
         <v>45134</v>
       </c>
       <c r="B9" t="n">
-        <v>22.16</v>
+        <v>37.45</v>
       </c>
       <c r="C9" t="n">
-        <v>28.47</v>
+        <v>16.77</v>
       </c>
       <c r="D9" t="n">
-        <v>27.22</v>
+        <v>22.63</v>
       </c>
       <c r="E9" t="n">
         <v>34.69</v>
@@ -1131,13 +1131,13 @@
         <v>45135</v>
       </c>
       <c r="B10" t="n">
-        <v>18.19</v>
+        <v>38.75</v>
       </c>
       <c r="C10" t="n">
-        <v>26.99</v>
+        <v>23.52</v>
       </c>
       <c r="D10" t="n">
-        <v>28.47</v>
+        <v>23.41</v>
       </c>
       <c r="E10" t="n">
         <v>38.16</v>
@@ -1148,13 +1148,13 @@
         <v>45138</v>
       </c>
       <c r="B11" t="n">
-        <v>16.52</v>
+        <v>40.27</v>
       </c>
       <c r="C11" t="n">
-        <v>23.53</v>
+        <v>25.52</v>
       </c>
       <c r="D11" t="n">
-        <v>30.28</v>
+        <v>24.6</v>
       </c>
       <c r="E11" t="n">
         <v>40.43</v>
@@ -1165,13 +1165,13 @@
         <v>45139</v>
       </c>
       <c r="B12" t="n">
-        <v>17.12</v>
+        <v>41.87</v>
       </c>
       <c r="C12" t="n">
-        <v>25.77</v>
+        <v>22.47</v>
       </c>
       <c r="D12" t="n">
-        <v>32.02</v>
+        <v>25.59</v>
       </c>
       <c r="E12" t="n">
         <v>38.35</v>
@@ -1182,13 +1182,13 @@
         <v>45140</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1</v>
+        <v>43.19</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>19.79</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1</v>
+        <v>26.27</v>
       </c>
       <c r="E13" t="n">
         <v>40.92</v>
@@ -1199,13 +1199,13 @@
         <v>45141</v>
       </c>
       <c r="B14" t="n">
-        <v>18.46</v>
+        <v>44.71</v>
       </c>
       <c r="C14" t="n">
-        <v>27.54</v>
+        <v>23.33</v>
       </c>
       <c r="D14" t="n">
-        <v>35.45</v>
+        <v>27.89</v>
       </c>
       <c r="E14" t="n">
         <v>40.35</v>
@@ -1216,13 +1216,13 @@
         <v>45142</v>
       </c>
       <c r="B15" t="n">
-        <v>18.49</v>
+        <v>46.27</v>
       </c>
       <c r="C15" t="n">
-        <v>27.59</v>
+        <v>28.37</v>
       </c>
       <c r="D15" t="n">
-        <v>37.34</v>
+        <v>29.6</v>
       </c>
       <c r="E15" t="n">
         <v>39.03</v>
@@ -1233,13 +1233,13 @@
         <v>45145</v>
       </c>
       <c r="B16" t="n">
-        <v>18.09</v>
+        <v>47.57</v>
       </c>
       <c r="C16" t="n">
-        <v>28.18</v>
+        <v>25.25</v>
       </c>
       <c r="D16" t="n">
-        <v>38.64</v>
+        <v>30.84</v>
       </c>
       <c r="E16" t="n">
         <v>39</v>
@@ -1250,13 +1250,13 @@
         <v>45146</v>
       </c>
       <c r="B17" t="n">
-        <v>18.91</v>
+        <v>48.55</v>
       </c>
       <c r="C17" t="n">
-        <v>28.82</v>
+        <v>27.2</v>
       </c>
       <c r="D17" t="n">
-        <v>39.84</v>
+        <v>32.1</v>
       </c>
       <c r="E17" t="n">
         <v>36.77</v>
@@ -1267,13 +1267,13 @@
         <v>45147</v>
       </c>
       <c r="B18" t="n">
-        <v>22.77</v>
+        <v>48.79</v>
       </c>
       <c r="C18" t="n">
-        <v>34.05</v>
+        <v>29.1</v>
       </c>
       <c r="D18" t="n">
-        <v>39.26</v>
+        <v>31.93</v>
       </c>
       <c r="E18" t="n">
         <v>40.45</v>
@@ -1284,13 +1284,13 @@
         <v>45148</v>
       </c>
       <c r="B19" t="n">
-        <v>26.72</v>
+        <v>49.34</v>
       </c>
       <c r="C19" t="n">
-        <v>34.51</v>
+        <v>33.09</v>
       </c>
       <c r="D19" t="n">
-        <v>41.33</v>
+        <v>33.62</v>
       </c>
       <c r="E19" t="n">
         <v>42.95</v>
@@ -1301,13 +1301,13 @@
         <v>45149</v>
       </c>
       <c r="B20" t="n">
-        <v>29.02</v>
+        <v>50.44</v>
       </c>
       <c r="C20" t="n">
-        <v>37.13</v>
+        <v>37.11</v>
       </c>
       <c r="D20" t="n">
-        <v>43.46</v>
+        <v>35.69</v>
       </c>
       <c r="E20" t="n">
         <v>43.81</v>
@@ -1318,13 +1318,13 @@
         <v>45152</v>
       </c>
       <c r="B21" t="n">
-        <v>30.16</v>
+        <v>51.7</v>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>38.12</v>
       </c>
       <c r="D21" t="n">
-        <v>44.94</v>
+        <v>36.6</v>
       </c>
       <c r="E21" t="n">
         <v>46.62</v>
@@ -1335,13 +1335,13 @@
         <v>45153</v>
       </c>
       <c r="B22" t="n">
-        <v>31.4</v>
+        <v>53.18</v>
       </c>
       <c r="C22" t="n">
-        <v>49.75</v>
+        <v>49.52</v>
       </c>
       <c r="D22" t="n">
-        <v>46.91</v>
+        <v>37.8</v>
       </c>
       <c r="E22" t="n">
         <v>45.34</v>
@@ -1352,13 +1352,13 @@
         <v>45154</v>
       </c>
       <c r="B23" t="n">
-        <v>33.07</v>
+        <v>54.42</v>
       </c>
       <c r="C23" t="n">
-        <v>47.83</v>
+        <v>53.84</v>
       </c>
       <c r="D23" t="n">
-        <v>47.56</v>
+        <v>39.1</v>
       </c>
       <c r="E23" t="n">
         <v>44.22</v>
@@ -1369,13 +1369,13 @@
         <v>45155</v>
       </c>
       <c r="B24" t="n">
-        <v>35.02</v>
+        <v>55.22</v>
       </c>
       <c r="C24" t="n">
-        <v>53.17</v>
+        <v>53.74</v>
       </c>
       <c r="D24" t="n">
-        <v>47.68</v>
+        <v>39.4</v>
       </c>
       <c r="E24" t="n">
         <v>48.64</v>
@@ -1386,13 +1386,13 @@
         <v>45156</v>
       </c>
       <c r="B25" t="n">
-        <v>36.72</v>
+        <v>56.44</v>
       </c>
       <c r="C25" t="n">
-        <v>57.98</v>
+        <v>51.9</v>
       </c>
       <c r="D25" t="n">
-        <v>49.93</v>
+        <v>41.78</v>
       </c>
       <c r="E25" t="n">
         <v>46.48</v>
@@ -1403,13 +1403,13 @@
         <v>45159</v>
       </c>
       <c r="B26" t="n">
-        <v>38.27</v>
+        <v>57.45</v>
       </c>
       <c r="C26" t="n">
-        <v>63.05</v>
+        <v>53.51</v>
       </c>
       <c r="D26" t="n">
-        <v>49.95</v>
+        <v>42.94</v>
       </c>
       <c r="E26" t="n">
         <v>45.85</v>
@@ -1420,13 +1420,13 @@
         <v>45160</v>
       </c>
       <c r="B27" t="n">
-        <v>39.61</v>
+        <v>58.03</v>
       </c>
       <c r="C27" t="n">
-        <v>64.76000000000001</v>
+        <v>53.96</v>
       </c>
       <c r="D27" t="n">
-        <v>50.2</v>
+        <v>42.97</v>
       </c>
       <c r="E27" t="n">
         <v>44.41</v>
@@ -1437,13 +1437,13 @@
         <v>45161</v>
       </c>
       <c r="B28" t="n">
-        <v>41.35</v>
+        <v>58.17</v>
       </c>
       <c r="C28" t="n">
-        <v>64.45</v>
+        <v>52.98</v>
       </c>
       <c r="D28" t="n">
-        <v>49.18</v>
+        <v>42.52</v>
       </c>
       <c r="E28" t="n">
         <v>45.51</v>
@@ -1454,13 +1454,13 @@
         <v>45162</v>
       </c>
       <c r="B29" t="n">
-        <v>42.85</v>
+        <v>58.14</v>
       </c>
       <c r="C29" t="n">
-        <v>65.59</v>
+        <v>53.86</v>
       </c>
       <c r="D29" t="n">
-        <v>49.07</v>
+        <v>42.93</v>
       </c>
       <c r="E29" t="n">
         <v>43.99</v>
@@ -1471,13 +1471,13 @@
         <v>45163</v>
       </c>
       <c r="B30" t="n">
-        <v>44.45</v>
+        <v>57.85</v>
       </c>
       <c r="C30" t="n">
-        <v>62.38</v>
+        <v>58.23</v>
       </c>
       <c r="D30" t="n">
-        <v>47.89</v>
+        <v>41.94</v>
       </c>
       <c r="E30" t="n">
         <v>42.91</v>
@@ -1488,13 +1488,13 @@
         <v>45166</v>
       </c>
       <c r="B31" t="n">
-        <v>45.43</v>
+        <v>57.22</v>
       </c>
       <c r="C31" t="n">
-        <v>59.44</v>
+        <v>60.36</v>
       </c>
       <c r="D31" t="n">
-        <v>46.6</v>
+        <v>40.81</v>
       </c>
       <c r="E31" t="n">
         <v>41.18</v>
@@ -1505,13 +1505,13 @@
         <v>45167</v>
       </c>
       <c r="B32" t="n">
-        <v>46.19</v>
+        <v>56.38</v>
       </c>
       <c r="C32" t="n">
-        <v>53</v>
+        <v>59.77</v>
       </c>
       <c r="D32" t="n">
-        <v>45.41</v>
+        <v>39.64</v>
       </c>
       <c r="E32" t="n">
         <v>41</v>
@@ -1522,13 +1522,13 @@
         <v>45168</v>
       </c>
       <c r="B33" t="n">
-        <v>46.81</v>
+        <v>55.61</v>
       </c>
       <c r="C33" t="n">
-        <v>50.89</v>
+        <v>57.76</v>
       </c>
       <c r="D33" t="n">
-        <v>44.45</v>
+        <v>38.34</v>
       </c>
       <c r="E33" t="n">
         <v>40.84</v>
@@ -1539,13 +1539,13 @@
         <v>45169</v>
       </c>
       <c r="B34" t="n">
-        <v>47.28</v>
+        <v>54.8</v>
       </c>
       <c r="C34" t="n">
-        <v>50.07</v>
+        <v>55.18</v>
       </c>
       <c r="D34" t="n">
-        <v>43.39</v>
+        <v>37.53</v>
       </c>
       <c r="E34" t="n">
         <v>41.37</v>
@@ -1556,13 +1556,13 @@
         <v>45170</v>
       </c>
       <c r="B35" t="n">
-        <v>47.68</v>
+        <v>54.21</v>
       </c>
       <c r="C35" t="n">
-        <v>47.92</v>
+        <v>54.26</v>
       </c>
       <c r="D35" t="n">
-        <v>42.69</v>
+        <v>37.14</v>
       </c>
       <c r="E35" t="n">
         <v>38.87</v>
@@ -1573,13 +1573,13 @@
         <v>45173</v>
       </c>
       <c r="B36" t="n">
-        <v>48.26</v>
+        <v>53.61</v>
       </c>
       <c r="C36" t="n">
-        <v>47.25</v>
+        <v>51.34</v>
       </c>
       <c r="D36" t="n">
-        <v>41.38</v>
+        <v>36.44</v>
       </c>
       <c r="E36" t="n">
         <v>38.4</v>
@@ -1590,13 +1590,13 @@
         <v>45174</v>
       </c>
       <c r="B37" t="n">
-        <v>49.09</v>
+        <v>52.82</v>
       </c>
       <c r="C37" t="n">
-        <v>46.28</v>
+        <v>41.75</v>
       </c>
       <c r="D37" t="n">
-        <v>40.34</v>
+        <v>35.73</v>
       </c>
       <c r="E37" t="n">
         <v>42.24</v>
@@ -1607,13 +1607,13 @@
         <v>45175</v>
       </c>
       <c r="B38" t="n">
-        <v>49.36</v>
+        <v>52.78</v>
       </c>
       <c r="C38" t="n">
-        <v>46.82</v>
+        <v>35.72</v>
       </c>
       <c r="D38" t="n">
-        <v>41.41</v>
+        <v>38.08</v>
       </c>
       <c r="E38" t="n">
         <v>45.19</v>
@@ -1624,13 +1624,13 @@
         <v>45176</v>
       </c>
       <c r="B39" t="n">
-        <v>49.39</v>
+        <v>53.67</v>
       </c>
       <c r="C39" t="n">
-        <v>45.12</v>
+        <v>37.89</v>
       </c>
       <c r="D39" t="n">
-        <v>42.47</v>
+        <v>40.28</v>
       </c>
       <c r="E39" t="n">
         <v>44.73</v>
@@ -1641,13 +1641,13 @@
         <v>45177</v>
       </c>
       <c r="B40" t="n">
-        <v>49.37</v>
+        <v>54.71</v>
       </c>
       <c r="C40" t="n">
-        <v>43.97</v>
+        <v>42.97</v>
       </c>
       <c r="D40" t="n">
-        <v>43.16</v>
+        <v>40.52</v>
       </c>
       <c r="E40" t="n">
         <v>43</v>
@@ -1658,13 +1658,13 @@
         <v>45180</v>
       </c>
       <c r="B41" t="n">
-        <v>49.49</v>
+        <v>55.38</v>
       </c>
       <c r="C41" t="n">
-        <v>46.35</v>
+        <v>42.18</v>
       </c>
       <c r="D41" t="n">
-        <v>42.93</v>
+        <v>40.14</v>
       </c>
       <c r="E41" t="n">
         <v>43.14</v>
@@ -1675,13 +1675,13 @@
         <v>45181</v>
       </c>
       <c r="B42" t="n">
-        <v>49.39</v>
+        <v>55.8</v>
       </c>
       <c r="C42" t="n">
-        <v>42.63</v>
+        <v>36.18</v>
       </c>
       <c r="D42" t="n">
-        <v>43.21</v>
+        <v>40.73</v>
       </c>
       <c r="E42" t="n">
         <v>42.8</v>
@@ -1692,13 +1692,13 @@
         <v>45182</v>
       </c>
       <c r="B43" t="n">
-        <v>49.38</v>
+        <v>56.1</v>
       </c>
       <c r="C43" t="n">
-        <v>46.02</v>
+        <v>39.31</v>
       </c>
       <c r="D43" t="n">
-        <v>43.15</v>
+        <v>41.07</v>
       </c>
       <c r="E43" t="n">
         <v>42.41</v>
@@ -1709,13 +1709,13 @@
         <v>45183</v>
       </c>
       <c r="B44" t="n">
-        <v>49.33</v>
+        <v>56.22</v>
       </c>
       <c r="C44" t="n">
-        <v>44.88</v>
+        <v>45.06</v>
       </c>
       <c r="D44" t="n">
-        <v>43.18</v>
+        <v>40.77</v>
       </c>
       <c r="E44" t="n">
         <v>40.65</v>
@@ -1726,13 +1726,13 @@
         <v>45184</v>
       </c>
       <c r="B45" t="n">
-        <v>49.49</v>
+        <v>55.92</v>
       </c>
       <c r="C45" t="n">
-        <v>41.34</v>
+        <v>41.39</v>
       </c>
       <c r="D45" t="n">
-        <v>42.26</v>
+        <v>39.71</v>
       </c>
       <c r="E45" t="n">
         <v>40.11</v>
@@ -1743,13 +1743,13 @@
         <v>45187</v>
       </c>
       <c r="B46" t="n">
-        <v>49.91</v>
+        <v>55.15</v>
       </c>
       <c r="C46" t="n">
-        <v>36.36</v>
+        <v>45.21</v>
       </c>
       <c r="D46" t="n">
-        <v>41.31</v>
+        <v>38.12</v>
       </c>
       <c r="E46" t="n">
         <v>39.68</v>
@@ -1760,13 +1760,13 @@
         <v>45188</v>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>54.17</v>
       </c>
       <c r="C47" t="n">
-        <v>36.84</v>
+        <v>47.89</v>
       </c>
       <c r="D47" t="n">
-        <v>40.6</v>
+        <v>37.65</v>
       </c>
       <c r="E47" t="n">
         <v>39.35</v>
@@ -1777,13 +1777,13 @@
         <v>45189</v>
       </c>
       <c r="B48" t="n">
-        <v>49.85</v>
+        <v>53.21</v>
       </c>
       <c r="C48" t="n">
-        <v>36.26</v>
+        <v>43.54</v>
       </c>
       <c r="D48" t="n">
-        <v>40.05</v>
+        <v>36.88</v>
       </c>
       <c r="E48" t="n">
         <v>37.91</v>
@@ -1794,13 +1794,13 @@
         <v>45190</v>
       </c>
       <c r="B49" t="n">
-        <v>49.72</v>
+        <v>52.3</v>
       </c>
       <c r="C49" t="n">
-        <v>38.9</v>
+        <v>44.25</v>
       </c>
       <c r="D49" t="n">
-        <v>39.29</v>
+        <v>35.71</v>
       </c>
       <c r="E49" t="n">
         <v>37.51</v>
@@ -1811,13 +1811,13 @@
         <v>45191</v>
       </c>
       <c r="B50" t="n">
-        <v>50.09</v>
+        <v>51.31</v>
       </c>
       <c r="C50" t="n">
-        <v>32.1</v>
+        <v>47.6</v>
       </c>
       <c r="D50" t="n">
-        <v>38.72</v>
+        <v>35.12</v>
       </c>
       <c r="E50" t="n">
         <v>35.92</v>
@@ -1828,13 +1828,13 @@
         <v>45194</v>
       </c>
       <c r="B51" t="n">
-        <v>50.92</v>
+        <v>50.28</v>
       </c>
       <c r="C51" t="n">
-        <v>31.26</v>
+        <v>39.52</v>
       </c>
       <c r="D51" t="n">
-        <v>37.94</v>
+        <v>34.51</v>
       </c>
       <c r="E51" t="n">
         <v>35.49</v>
@@ -1845,13 +1845,13 @@
         <v>45195</v>
       </c>
       <c r="B52" t="n">
-        <v>52.15</v>
+        <v>49.36</v>
       </c>
       <c r="C52" t="n">
-        <v>32.97</v>
+        <v>28.43</v>
       </c>
       <c r="D52" t="n">
-        <v>36.99</v>
+        <v>33.34</v>
       </c>
       <c r="E52" t="n">
         <v>35.04</v>
@@ -1862,13 +1862,13 @@
         <v>45196</v>
       </c>
       <c r="B53" t="n">
-        <v>53.87</v>
+        <v>48.54</v>
       </c>
       <c r="C53" t="n">
-        <v>37.26</v>
+        <v>31.16</v>
       </c>
       <c r="D53" t="n">
-        <v>35.96</v>
+        <v>32.36</v>
       </c>
       <c r="E53" t="n">
         <v>33.97</v>
@@ -1879,13 +1879,13 @@
         <v>45197</v>
       </c>
       <c r="B54" t="n">
-        <v>55.13</v>
+        <v>47.66</v>
       </c>
       <c r="C54" t="n">
-        <v>42.06</v>
+        <v>32.33</v>
       </c>
       <c r="D54" t="n">
-        <v>35.05</v>
+        <v>31.9</v>
       </c>
       <c r="E54" t="n">
         <v>34.5</v>
@@ -1896,13 +1896,13 @@
         <v>45198</v>
       </c>
       <c r="B55" t="n">
-        <v>55.84</v>
+        <v>46.91</v>
       </c>
       <c r="C55" t="n">
-        <v>38.67</v>
+        <v>33.41</v>
       </c>
       <c r="D55" t="n">
-        <v>34.37</v>
+        <v>32.39</v>
       </c>
       <c r="E55" t="n">
         <v>33.12</v>
@@ -1913,13 +1913,13 @@
         <v>45201</v>
       </c>
       <c r="B56" t="n">
-        <v>57.11</v>
+        <v>46.18</v>
       </c>
       <c r="C56" t="n">
-        <v>35.53</v>
+        <v>25.04</v>
       </c>
       <c r="D56" t="n">
-        <v>33.35</v>
+        <v>32.03</v>
       </c>
       <c r="E56" t="n">
         <v>32.89</v>
@@ -1930,13 +1930,13 @@
         <v>45202</v>
       </c>
       <c r="B57" t="n">
-        <v>58.08</v>
+        <v>45.45</v>
       </c>
       <c r="C57" t="n">
-        <v>31.05</v>
+        <v>30.25</v>
       </c>
       <c r="D57" t="n">
-        <v>32.54</v>
+        <v>31.39</v>
       </c>
       <c r="E57" t="n">
         <v>32.04</v>
@@ -1947,13 +1947,13 @@
         <v>45203</v>
       </c>
       <c r="B58" t="n">
-        <v>59.17</v>
+        <v>44.62</v>
       </c>
       <c r="C58" t="n">
-        <v>34.09</v>
+        <v>27.37</v>
       </c>
       <c r="D58" t="n">
-        <v>31.68</v>
+        <v>30.9</v>
       </c>
       <c r="E58" t="n">
         <v>33.65</v>
@@ -1964,13 +1964,13 @@
         <v>45204</v>
       </c>
       <c r="B59" t="n">
-        <v>58.88</v>
+        <v>44.1</v>
       </c>
       <c r="C59" t="n">
-        <v>33.78</v>
+        <v>27.32</v>
       </c>
       <c r="D59" t="n">
-        <v>31.65</v>
+        <v>31.92</v>
       </c>
       <c r="E59" t="n">
         <v>36.35</v>
@@ -1981,13 +1981,13 @@
         <v>45205</v>
       </c>
       <c r="B60" t="n">
-        <v>56.21</v>
+        <v>44.38</v>
       </c>
       <c r="C60" t="n">
-        <v>35.58</v>
+        <v>19.03</v>
       </c>
       <c r="D60" t="n">
-        <v>32.5</v>
+        <v>33.44</v>
       </c>
       <c r="E60" t="n">
         <v>36.69</v>
@@ -1998,13 +1998,13 @@
         <v>45208</v>
       </c>
       <c r="B61" t="n">
-        <v>54.08</v>
+        <v>45.12</v>
       </c>
       <c r="C61" t="n">
-        <v>32.9</v>
+        <v>26.59</v>
       </c>
       <c r="D61" t="n">
-        <v>33.06</v>
+        <v>33.38</v>
       </c>
       <c r="E61" t="n">
         <v>36.04</v>
@@ -2015,13 +2015,13 @@
         <v>45209</v>
       </c>
       <c r="B62" t="n">
-        <v>51.25</v>
+        <v>45.79</v>
       </c>
       <c r="C62" t="n">
-        <v>33.29</v>
+        <v>27.91</v>
       </c>
       <c r="D62" t="n">
-        <v>33.26</v>
+        <v>32.66</v>
       </c>
       <c r="E62" t="n">
         <v>36.89</v>
@@ -2032,13 +2032,13 @@
         <v>45210</v>
       </c>
       <c r="B63" t="n">
-        <v>49.78</v>
+        <v>46.49</v>
       </c>
       <c r="C63" t="n">
-        <v>31.16</v>
+        <v>32.63</v>
       </c>
       <c r="D63" t="n">
-        <v>34.03</v>
+        <v>32.83</v>
       </c>
       <c r="E63" t="n">
         <v>40.58</v>
@@ -2049,13 +2049,13 @@
         <v>45211</v>
       </c>
       <c r="B64" t="n">
-        <v>49.02</v>
+        <v>47.44</v>
       </c>
       <c r="C64" t="n">
-        <v>33.08</v>
+        <v>27.65</v>
       </c>
       <c r="D64" t="n">
-        <v>35.29</v>
+        <v>33.71</v>
       </c>
       <c r="E64" t="n">
         <v>41.05</v>
@@ -2066,13 +2066,13 @@
         <v>45212</v>
       </c>
       <c r="B65" t="n">
-        <v>48.48</v>
+        <v>48.41</v>
       </c>
       <c r="C65" t="n">
-        <v>32.65</v>
+        <v>40.76</v>
       </c>
       <c r="D65" t="n">
-        <v>36.33</v>
+        <v>34.27</v>
       </c>
       <c r="E65" t="n">
         <v>43.91</v>
@@ -2083,13 +2083,13 @@
         <v>45215</v>
       </c>
       <c r="B66" t="n">
-        <v>48.15</v>
+        <v>49.51</v>
       </c>
       <c r="C66" t="n">
-        <v>37.42</v>
+        <v>38.38</v>
       </c>
       <c r="D66" t="n">
-        <v>37.93</v>
+        <v>35.44</v>
       </c>
       <c r="E66" t="n">
         <v>42.25</v>
@@ -2100,13 +2100,13 @@
         <v>45216</v>
       </c>
       <c r="B67" t="n">
-        <v>47.78</v>
+        <v>50.37</v>
       </c>
       <c r="C67" t="n">
-        <v>36.07</v>
+        <v>41.05</v>
       </c>
       <c r="D67" t="n">
-        <v>38.59</v>
+        <v>35.3</v>
       </c>
       <c r="E67" t="n">
         <v>43.7</v>
@@ -2117,13 +2117,13 @@
         <v>45217</v>
       </c>
       <c r="B68" t="n">
-        <v>47.29</v>
+        <v>51.25</v>
       </c>
       <c r="C68" t="n">
-        <v>36.19</v>
+        <v>42.21</v>
       </c>
       <c r="D68" t="n">
-        <v>40.44</v>
+        <v>36.38</v>
       </c>
       <c r="E68" t="n">
         <v>44.47</v>
@@ -2134,13 +2134,13 @@
         <v>45218</v>
       </c>
       <c r="B69" t="n">
-        <v>46.94</v>
+        <v>52.29</v>
       </c>
       <c r="C69" t="n">
-        <v>35.6</v>
+        <v>44.71</v>
       </c>
       <c r="D69" t="n">
-        <v>42.12</v>
+        <v>37.66</v>
       </c>
       <c r="E69" t="n">
         <v>43.39</v>
@@ -2151,13 +2151,13 @@
         <v>45219</v>
       </c>
       <c r="B70" t="n">
-        <v>46.78</v>
+        <v>53.2</v>
       </c>
       <c r="C70" t="n">
-        <v>38.37</v>
+        <v>37.03</v>
       </c>
       <c r="D70" t="n">
-        <v>43.26</v>
+        <v>38.55</v>
       </c>
       <c r="E70" t="n">
         <v>41.46</v>
@@ -2168,13 +2168,13 @@
         <v>45222</v>
       </c>
       <c r="B71" t="n">
-        <v>46.91</v>
+        <v>53.59</v>
       </c>
       <c r="C71" t="n">
-        <v>35.04</v>
+        <v>32.01</v>
       </c>
       <c r="D71" t="n">
-        <v>43.23</v>
+        <v>38.53</v>
       </c>
       <c r="E71" t="n">
         <v>45.61</v>
@@ -2185,13 +2185,13 @@
         <v>45223</v>
       </c>
       <c r="B72" t="n">
-        <v>46.73</v>
+        <v>54.15</v>
       </c>
       <c r="C72" t="n">
-        <v>36.94</v>
+        <v>29.55</v>
       </c>
       <c r="D72" t="n">
-        <v>45.53</v>
+        <v>40.13</v>
       </c>
       <c r="E72" t="n">
         <v>46.36</v>
@@ -2202,13 +2202,13 @@
         <v>45224</v>
       </c>
       <c r="B73" t="n">
-        <v>46.49</v>
+        <v>54.97</v>
       </c>
       <c r="C73" t="n">
-        <v>40.78</v>
+        <v>32.21</v>
       </c>
       <c r="D73" t="n">
-        <v>47.18</v>
+        <v>41.18</v>
       </c>
       <c r="E73" t="n">
         <v>51</v>
@@ -2219,13 +2219,13 @@
         <v>45225</v>
       </c>
       <c r="B74" t="n">
-        <v>46.29</v>
+        <v>56.22</v>
       </c>
       <c r="C74" t="n">
-        <v>44.47</v>
+        <v>37.5</v>
       </c>
       <c r="D74" t="n">
-        <v>49.53</v>
+        <v>42.44</v>
       </c>
       <c r="E74" t="n">
         <v>52.6</v>
@@ -2236,13 +2236,13 @@
         <v>45226</v>
       </c>
       <c r="B75" t="n">
-        <v>46.18</v>
+        <v>57.63</v>
       </c>
       <c r="C75" t="n">
-        <v>45.25</v>
+        <v>42.35</v>
       </c>
       <c r="D75" t="n">
-        <v>51.61</v>
+        <v>43.98</v>
       </c>
       <c r="E75" t="n">
         <v>50.6</v>
@@ -2253,13 +2253,13 @@
         <v>45229</v>
       </c>
       <c r="B76" t="n">
-        <v>46.38</v>
+        <v>58.61</v>
       </c>
       <c r="C76" t="n">
-        <v>47.56</v>
+        <v>47.3</v>
       </c>
       <c r="D76" t="n">
-        <v>52.08</v>
+        <v>44.67</v>
       </c>
       <c r="E76" t="n">
         <v>51.3</v>
@@ -2270,13 +2270,13 @@
         <v>45230</v>
       </c>
       <c r="B77" t="n">
-        <v>46.5</v>
+        <v>59.44</v>
       </c>
       <c r="C77" t="n">
-        <v>48.03</v>
+        <v>54.23</v>
       </c>
       <c r="D77" t="n">
-        <v>53.58</v>
+        <v>45.7</v>
       </c>
       <c r="E77" t="n">
         <v>49.99</v>
@@ -2287,13 +2287,13 @@
         <v>45231</v>
       </c>
       <c r="B78" t="n">
-        <v>46.88</v>
+        <v>60.11</v>
       </c>
       <c r="C78" t="n">
-        <v>54.18</v>
+        <v>54.91</v>
       </c>
       <c r="D78" t="n">
-        <v>53.77</v>
+        <v>45.92</v>
       </c>
       <c r="E78" t="n">
         <v>51.25</v>
@@ -2304,13 +2304,13 @@
         <v>45232</v>
       </c>
       <c r="B79" t="n">
-        <v>47.12</v>
+        <v>60.83</v>
       </c>
       <c r="C79" t="n">
-        <v>56.64</v>
+        <v>58.73</v>
       </c>
       <c r="D79" t="n">
-        <v>55.13</v>
+        <v>47.04</v>
       </c>
       <c r="E79" t="n">
         <v>50.61</v>
@@ -2321,13 +2321,13 @@
         <v>45233</v>
       </c>
       <c r="B80" t="n">
-        <v>47.33</v>
+        <v>61.33</v>
       </c>
       <c r="C80" t="n">
-        <v>56.46</v>
+        <v>55.79</v>
       </c>
       <c r="D80" t="n">
-        <v>55.21</v>
+        <v>47.56</v>
       </c>
       <c r="E80" t="n">
         <v>50.65</v>
@@ -2338,13 +2338,13 @@
         <v>45236</v>
       </c>
       <c r="B81" t="n">
-        <v>47.47</v>
+        <v>61.64</v>
       </c>
       <c r="C81" t="n">
-        <v>57.71</v>
+        <v>57.14</v>
       </c>
       <c r="D81" t="n">
-        <v>55.83</v>
+        <v>47.82</v>
       </c>
       <c r="E81" t="n">
         <v>55.72</v>
@@ -2355,13 +2355,13 @@
         <v>45237</v>
       </c>
       <c r="B82" t="n">
-        <v>47.59</v>
+        <v>62.37</v>
       </c>
       <c r="C82" t="n">
-        <v>58.99</v>
+        <v>58.88</v>
       </c>
       <c r="D82" t="n">
-        <v>58.23</v>
+        <v>49.76</v>
       </c>
       <c r="E82" t="n">
         <v>61.29</v>
@@ -2372,13 +2372,13 @@
         <v>45238</v>
       </c>
       <c r="B83" t="n">
-        <v>47.68</v>
+        <v>63.62</v>
       </c>
       <c r="C83" t="n">
-        <v>60.25</v>
+        <v>59.45</v>
       </c>
       <c r="D83" t="n">
-        <v>61.3</v>
+        <v>51.78</v>
       </c>
       <c r="E83" t="n">
         <v>67.42</v>
@@ -2389,13 +2389,13 @@
         <v>45239</v>
       </c>
       <c r="B84" t="n">
-        <v>47.8</v>
+        <v>64.98</v>
       </c>
       <c r="C84" t="n">
-        <v>60.03</v>
+        <v>60.48</v>
       </c>
       <c r="D84" t="n">
-        <v>64.09999999999999</v>
+        <v>53.39</v>
       </c>
       <c r="E84" t="n">
         <v>65.70999999999999</v>
@@ -2406,13 +2406,13 @@
         <v>45240</v>
       </c>
       <c r="B85" t="n">
-        <v>47.97</v>
+        <v>66.25</v>
       </c>
       <c r="C85" t="n">
-        <v>59.77</v>
+        <v>62.18</v>
       </c>
       <c r="D85" t="n">
-        <v>65.66</v>
+        <v>54.2</v>
       </c>
       <c r="E85" t="n">
         <v>66.54000000000001</v>
@@ -2423,13 +2423,13 @@
         <v>45243</v>
       </c>
       <c r="B86" t="n">
-        <v>48.2</v>
+        <v>67.44</v>
       </c>
       <c r="C86" t="n">
-        <v>60.63</v>
+        <v>64.09</v>
       </c>
       <c r="D86" t="n">
-        <v>67.48999999999999</v>
+        <v>55.09</v>
       </c>
       <c r="E86" t="n">
         <v>73.19</v>
@@ -2440,13 +2440,13 @@
         <v>45244</v>
       </c>
       <c r="B87" t="n">
-        <v>48.39</v>
+        <v>68.88</v>
       </c>
       <c r="C87" t="n">
-        <v>63.71</v>
+        <v>65.75</v>
       </c>
       <c r="D87" t="n">
-        <v>70.76000000000001</v>
+        <v>56.82</v>
       </c>
       <c r="E87" t="n">
         <v>76.06999999999999</v>
@@ -2457,13 +2457,13 @@
         <v>45245</v>
       </c>
       <c r="B88" t="n">
-        <v>48.58</v>
+        <v>70.52</v>
       </c>
       <c r="C88" t="n">
-        <v>68.8</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>73.69</v>
+        <v>59.03</v>
       </c>
       <c r="E88" t="n">
         <v>78.09999999999999</v>
@@ -2474,13 +2474,13 @@
         <v>45246</v>
       </c>
       <c r="B89" t="n">
-        <v>48.78</v>
+        <v>72.17</v>
       </c>
       <c r="C89" t="n">
-        <v>70.64</v>
+        <v>68.03</v>
       </c>
       <c r="D89" t="n">
-        <v>76.14</v>
+        <v>61.15</v>
       </c>
       <c r="E89" t="n">
         <v>85.91</v>
@@ -2491,13 +2491,13 @@
         <v>45247</v>
       </c>
       <c r="B90" t="n">
-        <v>48.94</v>
+        <v>74.12</v>
       </c>
       <c r="C90" t="n">
-        <v>73</v>
+        <v>65.61</v>
       </c>
       <c r="D90" t="n">
-        <v>80.28</v>
+        <v>63.83</v>
       </c>
       <c r="E90" t="n">
         <v>79.58</v>
@@ -2508,13 +2508,13 @@
         <v>45250</v>
       </c>
       <c r="B91" t="n">
-        <v>49.22</v>
+        <v>75.73</v>
       </c>
       <c r="C91" t="n">
-        <v>75.77</v>
+        <v>65.77</v>
       </c>
       <c r="D91" t="n">
-        <v>80.27</v>
+        <v>64.87</v>
       </c>
       <c r="E91" t="n">
         <v>81.06999999999999</v>
@@ -2525,13 +2525,13 @@
         <v>45251</v>
       </c>
       <c r="B92" t="n">
-        <v>49.46</v>
+        <v>77.14</v>
       </c>
       <c r="C92" t="n">
-        <v>77.68000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>81.86</v>
+        <v>65.69</v>
       </c>
       <c r="E92" t="n">
         <v>85.26000000000001</v>
@@ -2542,13 +2542,13 @@
         <v>45252</v>
       </c>
       <c r="B93" t="n">
-        <v>49.71</v>
+        <v>78.77</v>
       </c>
       <c r="C93" t="n">
-        <v>79.2</v>
+        <v>68.38</v>
       </c>
       <c r="D93" t="n">
-        <v>84.11</v>
+        <v>68.25</v>
       </c>
       <c r="E93" t="n">
         <v>80.75</v>
@@ -2559,13 +2559,13 @@
         <v>45253</v>
       </c>
       <c r="B94" t="n">
-        <v>50.07</v>
+        <v>79.97</v>
       </c>
       <c r="C94" t="n">
-        <v>81.03</v>
+        <v>68.53</v>
       </c>
       <c r="D94" t="n">
-        <v>83.34999999999999</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E94" t="n">
         <v>81.93000000000001</v>
@@ -2576,13 +2576,13 @@
         <v>45254</v>
       </c>
       <c r="B95" t="n">
-        <v>50.44</v>
+        <v>80.78</v>
       </c>
       <c r="C95" t="n">
-        <v>82.26000000000001</v>
+        <v>69.19</v>
       </c>
       <c r="D95" t="n">
-        <v>83.84</v>
+        <v>68.94</v>
       </c>
       <c r="E95" t="n">
         <v>82.55</v>
@@ -2593,13 +2593,13 @@
         <v>45257</v>
       </c>
       <c r="B96" t="n">
-        <v>50.9</v>
+        <v>81.41</v>
       </c>
       <c r="C96" t="n">
-        <v>83.93000000000001</v>
+        <v>68.39</v>
       </c>
       <c r="D96" t="n">
-        <v>83.94</v>
+        <v>70.03</v>
       </c>
       <c r="E96" t="n">
         <v>79.81</v>
@@ -2610,13 +2610,13 @@
         <v>45258</v>
       </c>
       <c r="B97" t="n">
-        <v>51.41</v>
+        <v>81.7</v>
       </c>
       <c r="C97" t="n">
-        <v>86.77</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>82.25</v>
+        <v>69.16</v>
       </c>
       <c r="E97" t="n">
         <v>82.81</v>
@@ -2627,13 +2627,13 @@
         <v>45259</v>
       </c>
       <c r="B98" t="n">
-        <v>51.54</v>
+        <v>82.02</v>
       </c>
       <c r="C98" t="n">
-        <v>84.90000000000001</v>
+        <v>70.12</v>
       </c>
       <c r="D98" t="n">
-        <v>82.54000000000001</v>
+        <v>70.53</v>
       </c>
       <c r="E98" t="n">
         <v>81.48999999999999</v>
@@ -2644,13 +2644,13 @@
         <v>45260</v>
       </c>
       <c r="B99" t="n">
-        <v>51.86</v>
+        <v>82.16</v>
       </c>
       <c r="C99" t="n">
-        <v>84.73</v>
+        <v>70.72</v>
       </c>
       <c r="D99" t="n">
-        <v>81.81999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="E99" t="n">
         <v>82.73999999999999</v>
@@ -2661,13 +2661,13 @@
         <v>45261</v>
       </c>
       <c r="B100" t="n">
-        <v>52.59</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>83.69</v>
+        <v>70.39</v>
       </c>
       <c r="D100" t="n">
-        <v>81.70999999999999</v>
+        <v>71.13</v>
       </c>
       <c r="E100" t="n">
         <v>85.13</v>
@@ -2678,13 +2678,13 @@
         <v>45264</v>
       </c>
       <c r="B101" t="n">
-        <v>53.08</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>84.29000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="D101" t="n">
-        <v>83.23999999999999</v>
+        <v>73.91</v>
       </c>
       <c r="E101" t="n">
         <v>89</v>
@@ -2695,13 +2695,13 @@
         <v>45265</v>
       </c>
       <c r="B102" t="n">
-        <v>53.66</v>
+        <v>83.68000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>86.97</v>
+        <v>67.87</v>
       </c>
       <c r="D102" t="n">
-        <v>84.23</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>97.90000000000001</v>
@@ -2712,13 +2712,13 @@
         <v>45266</v>
       </c>
       <c r="B103" t="n">
-        <v>54</v>
+        <v>84.84</v>
       </c>
       <c r="C103" t="n">
-        <v>90.17</v>
+        <v>67.58</v>
       </c>
       <c r="D103" t="n">
-        <v>85.84999999999999</v>
+        <v>77.11</v>
       </c>
       <c r="E103" t="n">
         <v>94.16</v>
@@ -2729,13 +2729,13 @@
         <v>45267</v>
       </c>
       <c r="B104" t="n">
-        <v>54.91</v>
+        <v>85.83</v>
       </c>
       <c r="C104" t="n">
-        <v>91.59999999999999</v>
+        <v>67.23</v>
       </c>
       <c r="D104" t="n">
-        <v>85.43000000000001</v>
+        <v>78.38</v>
       </c>
       <c r="E104" t="n">
         <v>95.3</v>
@@ -2746,13 +2746,13 @@
         <v>45268</v>
       </c>
       <c r="B105" t="n">
-        <v>55.9</v>
+        <v>86.64</v>
       </c>
       <c r="C105" t="n">
-        <v>95.61</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>85.93000000000001</v>
+        <v>79.34</v>
       </c>
       <c r="E105" t="n">
         <v>89.2</v>
@@ -2763,13 +2763,13 @@
         <v>45271</v>
       </c>
       <c r="B106" t="n">
-        <v>58.35</v>
+        <v>87.09</v>
       </c>
       <c r="C106" t="n">
-        <v>97.45</v>
+        <v>64.11</v>
       </c>
       <c r="D106" t="n">
-        <v>84.52</v>
+        <v>78.66</v>
       </c>
       <c r="E106" t="n">
         <v>81.68000000000001</v>
@@ -2780,13 +2780,13 @@
         <v>45272</v>
       </c>
       <c r="B107" t="n">
-        <v>61.31</v>
+        <v>86.8</v>
       </c>
       <c r="C107" t="n">
-        <v>92.91</v>
+        <v>60.13</v>
       </c>
       <c r="D107" t="n">
-        <v>82.17</v>
+        <v>76.02</v>
       </c>
       <c r="E107" t="n">
         <v>80.7</v>
@@ -2797,13 +2797,13 @@
         <v>45273</v>
       </c>
       <c r="B108" t="n">
-        <v>64.26000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>88.56999999999999</v>
+        <v>58.49</v>
       </c>
       <c r="D108" t="n">
-        <v>80.87</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E108" t="n">
         <v>80.97</v>
@@ -2814,13 +2814,13 @@
         <v>45274</v>
       </c>
       <c r="B109" t="n">
-        <v>66.02</v>
+        <v>85.34</v>
       </c>
       <c r="C109" t="n">
-        <v>91.72</v>
+        <v>55.02</v>
       </c>
       <c r="D109" t="n">
-        <v>80.03</v>
+        <v>73.92</v>
       </c>
       <c r="E109" t="n">
         <v>83.59</v>
@@ -2831,13 +2831,13 @@
         <v>45275</v>
       </c>
       <c r="B110" t="n">
-        <v>66.95999999999999</v>
+        <v>84.66</v>
       </c>
       <c r="C110" t="n">
-        <v>83.98</v>
+        <v>54.21</v>
       </c>
       <c r="D110" t="n">
-        <v>79.69</v>
+        <v>74.12</v>
       </c>
       <c r="E110" t="n">
         <v>82.40000000000001</v>
@@ -2848,13 +2848,13 @@
         <v>45278</v>
       </c>
       <c r="B111" t="n">
-        <v>67.81999999999999</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>76.17</v>
+        <v>52.73</v>
       </c>
       <c r="D111" t="n">
-        <v>78.94</v>
+        <v>73.03</v>
       </c>
       <c r="E111" t="n">
         <v>83.22</v>
@@ -2865,13 +2865,13 @@
         <v>45279</v>
       </c>
       <c r="B112" t="n">
-        <v>68.59</v>
+        <v>83.47</v>
       </c>
       <c r="C112" t="n">
-        <v>73.87</v>
+        <v>54.71</v>
       </c>
       <c r="D112" t="n">
-        <v>78.33</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E112" t="n">
         <v>81.18000000000001</v>
@@ -2882,13 +2882,13 @@
         <v>45280</v>
       </c>
       <c r="B113" t="n">
-        <v>69.41</v>
+        <v>82.87</v>
       </c>
       <c r="C113" t="n">
-        <v>75.87</v>
+        <v>56.36</v>
       </c>
       <c r="D113" t="n">
-        <v>76.95999999999999</v>
+        <v>70.91</v>
       </c>
       <c r="E113" t="n">
         <v>80.94</v>
@@ -2899,13 +2899,13 @@
         <v>45281</v>
       </c>
       <c r="B114" t="n">
-        <v>70.06</v>
+        <v>82.25</v>
       </c>
       <c r="C114" t="n">
-        <v>72.95999999999999</v>
+        <v>59.03</v>
       </c>
       <c r="D114" t="n">
-        <v>76.34</v>
+        <v>70.31</v>
       </c>
       <c r="E114" t="n">
         <v>77.98999999999999</v>
@@ -2916,13 +2916,13 @@
         <v>45282</v>
       </c>
       <c r="B115" t="n">
-        <v>70.81</v>
+        <v>81.52</v>
       </c>
       <c r="C115" t="n">
-        <v>77.05</v>
+        <v>60.12</v>
       </c>
       <c r="D115" t="n">
-        <v>74.95</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E115" t="n">
         <v>78.70999999999999</v>
@@ -2933,13 +2933,13 @@
         <v>45285</v>
       </c>
       <c r="B116" t="n">
-        <v>71.29000000000001</v>
+        <v>80.91</v>
       </c>
       <c r="C116" t="n">
-        <v>81.29000000000001</v>
+        <v>62.93</v>
       </c>
       <c r="D116" t="n">
-        <v>74.67</v>
+        <v>69.16</v>
       </c>
       <c r="E116" t="n">
         <v>76.01000000000001</v>
@@ -2950,13 +2950,13 @@
         <v>45286</v>
       </c>
       <c r="B117" t="n">
-        <v>71.8</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>80.62</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>73.34</v>
+        <v>68.05</v>
       </c>
       <c r="E117" t="n">
         <v>76.09</v>
@@ -2967,13 +2967,13 @@
         <v>45287</v>
       </c>
       <c r="B118" t="n">
-        <v>72.09999999999999</v>
+        <v>79.62</v>
       </c>
       <c r="C118" t="n">
-        <v>75.52</v>
+        <v>68.8</v>
       </c>
       <c r="D118" t="n">
-        <v>72.78</v>
+        <v>67.42</v>
       </c>
       <c r="E118" t="n">
         <v>78.93000000000001</v>
@@ -2984,13 +2984,13 @@
         <v>45288</v>
       </c>
       <c r="B119" t="n">
-        <v>72.34</v>
+        <v>79.37</v>
       </c>
       <c r="C119" t="n">
-        <v>75.36</v>
+        <v>68.81</v>
       </c>
       <c r="D119" t="n">
-        <v>73.37</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="E119" t="n">
         <v>75</v>
@@ -3001,13 +3001,13 @@
         <v>45289</v>
       </c>
       <c r="B120" t="n">
-        <v>73.23999999999999</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>75.06999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="D120" t="n">
-        <v>72.18000000000001</v>
+        <v>67.78</v>
       </c>
       <c r="E120" t="n">
         <v>75.69</v>
@@ -3018,13 +3018,13 @@
         <v>45292</v>
       </c>
       <c r="B121" t="n">
-        <v>73.94</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>75.70999999999999</v>
+        <v>72.56</v>
       </c>
       <c r="D121" t="n">
-        <v>72.09</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="E121" t="n">
         <v>77.38</v>
@@ -3035,13 +3035,13 @@
         <v>45293</v>
       </c>
       <c r="B122" t="n">
-        <v>74.47</v>
+        <v>78.27</v>
       </c>
       <c r="C122" t="n">
-        <v>76.73</v>
+        <v>75.67</v>
       </c>
       <c r="D122" t="n">
-        <v>72.45999999999999</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="E122" t="n">
         <v>76.7</v>
@@ -3052,13 +3052,13 @@
         <v>45294</v>
       </c>
       <c r="B123" t="n">
-        <v>75.03</v>
+        <v>78.06999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>75.59999999999999</v>
+        <v>73.12</v>
       </c>
       <c r="D123" t="n">
-        <v>72.44</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E123" t="n">
         <v>74.45</v>
@@ -3069,13 +3069,13 @@
         <v>45295</v>
       </c>
       <c r="B124" t="n">
-        <v>76.06</v>
+        <v>77.64</v>
       </c>
       <c r="C124" t="n">
-        <v>77.15000000000001</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>70.95999999999999</v>
+        <v>64.98</v>
       </c>
       <c r="E124" t="n">
         <v>74.40000000000001</v>
@@ -3086,13 +3086,13 @@
         <v>45296</v>
       </c>
       <c r="B125" t="n">
-        <v>76.87</v>
+        <v>77.06999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>78.53</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>70.25</v>
+        <v>64.18000000000001</v>
       </c>
       <c r="E125" t="n">
         <v>80.43000000000001</v>
@@ -3103,13 +3103,13 @@
         <v>45299</v>
       </c>
       <c r="B126" t="n">
-        <v>76.59999999999999</v>
+        <v>77.13</v>
       </c>
       <c r="C126" t="n">
-        <v>84.61</v>
+        <v>78.06</v>
       </c>
       <c r="D126" t="n">
-        <v>72.40000000000001</v>
+        <v>69.11</v>
       </c>
       <c r="E126" t="n">
         <v>78.98999999999999</v>
@@ -3120,13 +3120,13 @@
         <v>45300</v>
       </c>
       <c r="B127" t="n">
-        <v>76.62</v>
+        <v>77.48</v>
       </c>
       <c r="C127" t="n">
-        <v>81.92</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>72.98</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E127" t="n">
         <v>79.65000000000001</v>
@@ -3137,13 +3137,13 @@
         <v>45301</v>
       </c>
       <c r="B128" t="n">
-        <v>76.44</v>
+        <v>77.91</v>
       </c>
       <c r="C128" t="n">
-        <v>81.34999999999999</v>
+        <v>80.09</v>
       </c>
       <c r="D128" t="n">
-        <v>73.67</v>
+        <v>69.72</v>
       </c>
       <c r="E128" t="n">
         <v>81.8</v>
@@ -3154,13 +3154,13 @@
         <v>45302</v>
       </c>
       <c r="B129" t="n">
-        <v>75.86</v>
+        <v>78.52</v>
       </c>
       <c r="C129" t="n">
-        <v>83.87</v>
+        <v>79.66</v>
       </c>
       <c r="D129" t="n">
-        <v>74.86</v>
+        <v>70.97</v>
       </c>
       <c r="E129" t="n">
         <v>80.75</v>
@@ -3171,13 +3171,13 @@
         <v>45303</v>
       </c>
       <c r="B130" t="n">
-        <v>75.47</v>
+        <v>79.08</v>
       </c>
       <c r="C130" t="n">
-        <v>87.88</v>
+        <v>83.12</v>
       </c>
       <c r="D130" t="n">
-        <v>75.27</v>
+        <v>71.61</v>
       </c>
       <c r="E130" t="n">
         <v>82.45</v>
@@ -3188,13 +3188,13 @@
         <v>45306</v>
       </c>
       <c r="B131" t="n">
-        <v>74.68000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>84.63</v>
+        <v>83.53</v>
       </c>
       <c r="D131" t="n">
-        <v>76.25</v>
+        <v>73.17</v>
       </c>
       <c r="E131" t="n">
         <v>85.98999999999999</v>
@@ -3205,13 +3205,13 @@
         <v>45307</v>
       </c>
       <c r="B132" t="n">
-        <v>73.78</v>
+        <v>80.28</v>
       </c>
       <c r="C132" t="n">
-        <v>88.08</v>
+        <v>87.94</v>
       </c>
       <c r="D132" t="n">
-        <v>77.34999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E132" t="n">
         <v>89.89</v>
@@ -3222,13 +3222,13 @@
         <v>45308</v>
       </c>
       <c r="B133" t="n">
-        <v>72.76000000000001</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>87.95999999999999</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>78.42</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="E133" t="n">
         <v>89.93000000000001</v>
@@ -3239,13 +3239,13 @@
         <v>45309</v>
       </c>
       <c r="B134" t="n">
-        <v>71.61</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>87.38</v>
+        <v>84.87</v>
       </c>
       <c r="D134" t="n">
-        <v>79.45999999999999</v>
+        <v>77.08</v>
       </c>
       <c r="E134" t="n">
         <v>82.8</v>
@@ -3256,13 +3256,13 @@
         <v>45310</v>
       </c>
       <c r="B135" t="n">
-        <v>71.73999999999999</v>
+        <v>82</v>
       </c>
       <c r="C135" t="n">
-        <v>85.14</v>
+        <v>83.12</v>
       </c>
       <c r="D135" t="n">
-        <v>77.81</v>
+        <v>74.83</v>
       </c>
       <c r="E135" t="n">
         <v>83</v>
@@ -3273,13 +3273,13 @@
         <v>45313</v>
       </c>
       <c r="B136" t="n">
-        <v>71.64</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>82.11</v>
+        <v>85.25</v>
       </c>
       <c r="D136" t="n">
-        <v>77.14</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="E136" t="n">
         <v>84.06</v>
@@ -3290,13 +3290,13 @@
         <v>45314</v>
       </c>
       <c r="B137" t="n">
-        <v>71.47</v>
+        <v>81.83</v>
       </c>
       <c r="C137" t="n">
-        <v>82.2</v>
+        <v>82.38</v>
       </c>
       <c r="D137" t="n">
-        <v>77.26000000000001</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="E137" t="n">
         <v>84.65000000000001</v>
@@ -3307,13 +3307,13 @@
         <v>45315</v>
       </c>
       <c r="B138" t="n">
-        <v>71.28</v>
+        <v>81.69</v>
       </c>
       <c r="C138" t="n">
-        <v>78.51000000000001</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>77.39</v>
+        <v>74.64</v>
       </c>
       <c r="E138" t="n">
         <v>82.95999999999999</v>
@@ -3324,13 +3324,13 @@
         <v>45316</v>
       </c>
       <c r="B139" t="n">
-        <v>71.38</v>
+        <v>81.36</v>
       </c>
       <c r="C139" t="n">
-        <v>82.73</v>
+        <v>80.56</v>
       </c>
       <c r="D139" t="n">
-        <v>76.43000000000001</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="E139" t="n">
         <v>78.40000000000001</v>
@@ -3341,13 +3341,13 @@
         <v>45317</v>
       </c>
       <c r="B140" t="n">
-        <v>71.58</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>80.23</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>74.89</v>
+        <v>70.45</v>
       </c>
       <c r="E140" t="n">
         <v>71.98</v>
@@ -3358,13 +3358,13 @@
         <v>45320</v>
       </c>
       <c r="B141" t="n">
-        <v>71.8</v>
+        <v>80.02</v>
       </c>
       <c r="C141" t="n">
-        <v>76.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>73.40000000000001</v>
+        <v>68.28</v>
       </c>
       <c r="E141" t="n">
         <v>76.2</v>
@@ -3375,13 +3375,13 @@
         <v>45321</v>
       </c>
       <c r="B142" t="n">
-        <v>71.75</v>
+        <v>79.47</v>
       </c>
       <c r="C142" t="n">
-        <v>74.70999999999999</v>
+        <v>77.72</v>
       </c>
       <c r="D142" t="n">
-        <v>73.68000000000001</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="E142" t="n">
         <v>73.34999999999999</v>
@@ -3392,13 +3392,13 @@
         <v>45322</v>
       </c>
       <c r="B143" t="n">
-        <v>72.03</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>76.37</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>72.62</v>
+        <v>68.33</v>
       </c>
       <c r="E143" t="n">
         <v>72.89</v>
@@ -3409,13 +3409,13 @@
         <v>45323</v>
       </c>
       <c r="B144" t="n">
-        <v>72.31999999999999</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>77.15000000000001</v>
+        <v>71.67</v>
       </c>
       <c r="D144" t="n">
-        <v>72</v>
+        <v>66.83</v>
       </c>
       <c r="E144" t="n">
         <v>69.52</v>
@@ -3426,13 +3426,13 @@
         <v>45324</v>
       </c>
       <c r="B145" t="n">
-        <v>72.7</v>
+        <v>77.59</v>
       </c>
       <c r="C145" t="n">
-        <v>75.14</v>
+        <v>72.86</v>
       </c>
       <c r="D145" t="n">
-        <v>71.08</v>
+        <v>65</v>
       </c>
       <c r="E145" t="n">
         <v>70.14</v>
@@ -3443,13 +3443,13 @@
         <v>45327</v>
       </c>
       <c r="B146" t="n">
-        <v>73.12</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>76.31999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="D146" t="n">
-        <v>70.29000000000001</v>
+        <v>63.86</v>
       </c>
       <c r="E146" t="n">
         <v>67.39</v>
@@ -3460,13 +3460,13 @@
         <v>45328</v>
       </c>
       <c r="B147" t="n">
-        <v>73.78</v>
+        <v>76.11</v>
       </c>
       <c r="C147" t="n">
-        <v>78.34</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>69.12</v>
+        <v>61.85</v>
       </c>
       <c r="E147" t="n">
         <v>66.06</v>
@@ -3477,13 +3477,13 @@
         <v>45329</v>
       </c>
       <c r="B148" t="n">
-        <v>74.5</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>76.19</v>
+        <v>70.13</v>
       </c>
       <c r="D148" t="n">
-        <v>68.16</v>
+        <v>60.49</v>
       </c>
       <c r="E148" t="n">
         <v>68.5</v>
@@ -3494,13 +3494,13 @@
         <v>45330</v>
       </c>
       <c r="B149" t="n">
-        <v>74.97</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>74.70999999999999</v>
+        <v>70.39</v>
       </c>
       <c r="D149" t="n">
-        <v>68.28</v>
+        <v>61.12</v>
       </c>
       <c r="E149" t="n">
         <v>68.55</v>
@@ -3511,13 +3511,13 @@
         <v>45331</v>
       </c>
       <c r="B150" t="n">
-        <v>75.58</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>75.11</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>68.04000000000001</v>
+        <v>60.86</v>
       </c>
       <c r="E150" t="n">
         <v>66.59999999999999</v>
@@ -3528,13 +3528,13 @@
         <v>45334</v>
       </c>
       <c r="B151" t="n">
-        <v>76.47</v>
+        <v>73.69</v>
       </c>
       <c r="C151" t="n">
-        <v>78.22</v>
+        <v>68.62</v>
       </c>
       <c r="D151" t="n">
-        <v>67.27</v>
+        <v>59.07</v>
       </c>
       <c r="E151" t="n">
         <v>66.97</v>
@@ -3545,13 +3545,13 @@
         <v>45335</v>
       </c>
       <c r="B152" t="n">
-        <v>77.34999999999999</v>
+        <v>73.17</v>
       </c>
       <c r="C152" t="n">
-        <v>78.06</v>
+        <v>67.27</v>
       </c>
       <c r="D152" t="n">
-        <v>66.63</v>
+        <v>58</v>
       </c>
       <c r="E152" t="n">
         <v>66.3</v>
@@ -3562,13 +3562,13 @@
         <v>45336</v>
       </c>
       <c r="B153" t="n">
-        <v>78.20999999999999</v>
+        <v>72.67</v>
       </c>
       <c r="C153" t="n">
-        <v>77.93000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>66.06999999999999</v>
+        <v>57.56</v>
       </c>
       <c r="E153" t="n">
         <v>64.56</v>
@@ -3579,13 +3579,13 @@
         <v>45337</v>
       </c>
       <c r="B154" t="n">
-        <v>79.20999999999999</v>
+        <v>72.03</v>
       </c>
       <c r="C154" t="n">
-        <v>78.39</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>65.09</v>
+        <v>56.52</v>
       </c>
       <c r="E154" t="n">
         <v>64.43000000000001</v>
@@ -3596,13 +3596,13 @@
         <v>45338</v>
       </c>
       <c r="B155" t="n">
-        <v>79.89</v>
+        <v>71.39</v>
       </c>
       <c r="C155" t="n">
-        <v>78.08</v>
+        <v>64.05</v>
       </c>
       <c r="D155" t="n">
-        <v>64.66</v>
+        <v>56.26</v>
       </c>
       <c r="E155" t="n">
         <v>62.35</v>
@@ -3613,13 +3613,13 @@
         <v>45341</v>
       </c>
       <c r="B156" t="n">
-        <v>80.55</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C156" t="n">
-        <v>73.36</v>
+        <v>65.78</v>
       </c>
       <c r="D156" t="n">
-        <v>63.44</v>
+        <v>54.87</v>
       </c>
       <c r="E156" t="n">
         <v>60.2</v>
@@ -3630,13 +3630,13 @@
         <v>45342</v>
       </c>
       <c r="B157" t="n">
-        <v>80.97</v>
+        <v>70.06</v>
       </c>
       <c r="C157" t="n">
-        <v>71.53</v>
+        <v>66</v>
       </c>
       <c r="D157" t="n">
-        <v>62.68</v>
+        <v>54.01</v>
       </c>
       <c r="E157" t="n">
         <v>61.95</v>
@@ -3647,13 +3647,13 @@
         <v>45343</v>
       </c>
       <c r="B158" t="n">
-        <v>81.29000000000001</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>71.55</v>
+        <v>65.53</v>
       </c>
       <c r="D158" t="n">
-        <v>62.62</v>
+        <v>54.83</v>
       </c>
       <c r="E158" t="n">
         <v>62.02</v>
@@ -3664,13 +3664,13 @@
         <v>45344</v>
       </c>
       <c r="B159" t="n">
-        <v>81.66</v>
+        <v>69.14</v>
       </c>
       <c r="C159" t="n">
-        <v>70.70999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="D159" t="n">
-        <v>62.41</v>
+        <v>55.46</v>
       </c>
       <c r="E159" t="n">
         <v>65</v>
@@ -3681,13 +3681,13 @@
         <v>45345</v>
       </c>
       <c r="B160" t="n">
-        <v>81.84999999999999</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>72.83</v>
+        <v>67.87</v>
       </c>
       <c r="D160" t="n">
-        <v>63.42</v>
+        <v>57.35</v>
       </c>
       <c r="E160" t="n">
         <v>63.29</v>
@@ -3698,13 +3698,13 @@
         <v>45348</v>
       </c>
       <c r="B161" t="n">
-        <v>81.89</v>
+        <v>69.16</v>
       </c>
       <c r="C161" t="n">
-        <v>74.29000000000001</v>
+        <v>67.38</v>
       </c>
       <c r="D161" t="n">
-        <v>63.31</v>
+        <v>57.15</v>
       </c>
       <c r="E161" t="n">
         <v>60.61</v>
@@ -3715,13 +3715,13 @@
         <v>45349</v>
       </c>
       <c r="B162" t="n">
-        <v>82.03</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>73.52</v>
+        <v>66.84</v>
       </c>
       <c r="D162" t="n">
-        <v>62</v>
+        <v>54.71</v>
       </c>
       <c r="E162" t="n">
         <v>58.8</v>
@@ -3732,13 +3732,13 @@
         <v>45350</v>
       </c>
       <c r="B163" t="n">
-        <v>82.11</v>
+        <v>68.3</v>
       </c>
       <c r="C163" t="n">
-        <v>75.48</v>
+        <v>65.64</v>
       </c>
       <c r="D163" t="n">
-        <v>60.66</v>
+        <v>53.24</v>
       </c>
       <c r="E163" t="n">
         <v>56.81</v>
@@ -3749,13 +3749,13 @@
         <v>45351</v>
       </c>
       <c r="B164" t="n">
-        <v>82.06999999999999</v>
+        <v>67.58</v>
       </c>
       <c r="C164" t="n">
-        <v>74.29000000000001</v>
+        <v>65.59</v>
       </c>
       <c r="D164" t="n">
-        <v>59.55</v>
+        <v>52.64</v>
       </c>
       <c r="E164" t="n">
         <v>58.42</v>
@@ -3766,13 +3766,13 @@
         <v>45352</v>
       </c>
       <c r="B165" t="n">
-        <v>81.69</v>
+        <v>67</v>
       </c>
       <c r="C165" t="n">
-        <v>69.61</v>
+        <v>65.92</v>
       </c>
       <c r="D165" t="n">
-        <v>59.34</v>
+        <v>53.58</v>
       </c>
       <c r="E165" t="n">
         <v>58.51</v>
@@ -3783,13 +3783,13 @@
         <v>45355</v>
       </c>
       <c r="B166" t="n">
-        <v>81.31999999999999</v>
+        <v>66.55</v>
       </c>
       <c r="C166" t="n">
-        <v>67.09999999999999</v>
+        <v>63.78</v>
       </c>
       <c r="D166" t="n">
-        <v>58.94</v>
+        <v>53.72</v>
       </c>
       <c r="E166" t="n">
         <v>56.1</v>
@@ -3800,13 +3800,13 @@
         <v>45356</v>
       </c>
       <c r="B167" t="n">
-        <v>81.08</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C167" t="n">
-        <v>67.69</v>
+        <v>63.73</v>
       </c>
       <c r="D167" t="n">
-        <v>57.91</v>
+        <v>51.88</v>
       </c>
       <c r="E167" t="n">
         <v>61.71</v>
@@ -3817,13 +3817,13 @@
         <v>45357</v>
       </c>
       <c r="B168" t="n">
-        <v>80.20999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>71.86</v>
+        <v>63.11</v>
       </c>
       <c r="D168" t="n">
-        <v>59.38</v>
+        <v>54.78</v>
       </c>
       <c r="E168" t="n">
         <v>67.88</v>
@@ -3834,13 +3834,13 @@
         <v>45358</v>
       </c>
       <c r="B169" t="n">
-        <v>79.06999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>70.98</v>
+        <v>63.84</v>
       </c>
       <c r="D169" t="n">
-        <v>61.72</v>
+        <v>57.86</v>
       </c>
       <c r="E169" t="n">
         <v>71.7</v>
@@ -3851,13 +3851,13 @@
         <v>45359</v>
       </c>
       <c r="B170" t="n">
-        <v>77.56999999999999</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C170" t="n">
-        <v>67.93000000000001</v>
+        <v>67.87</v>
       </c>
       <c r="D170" t="n">
-        <v>63.57</v>
+        <v>58.64</v>
       </c>
       <c r="E170" t="n">
         <v>74.15000000000001</v>
@@ -3868,13 +3868,13 @@
         <v>45362</v>
       </c>
       <c r="B171" t="n">
-        <v>75.55</v>
+        <v>68.63</v>
       </c>
       <c r="C171" t="n">
         <v>68.84999999999999</v>
       </c>
       <c r="D171" t="n">
-        <v>65.56999999999999</v>
+        <v>59.37</v>
       </c>
       <c r="E171" t="n">
         <v>70.69</v>
@@ -3885,13 +3885,13 @@
         <v>45363</v>
       </c>
       <c r="B172" t="n">
-        <v>74.01000000000001</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="C172" t="n">
-        <v>71.59</v>
+        <v>71.25</v>
       </c>
       <c r="D172" t="n">
-        <v>66.05</v>
+        <v>59.05</v>
       </c>
       <c r="E172" t="n">
         <v>70.45</v>
@@ -3902,13 +3902,13 @@
         <v>45364</v>
       </c>
       <c r="B173" t="n">
-        <v>72.31999999999999</v>
+        <v>70.31999999999999</v>
       </c>
       <c r="C173" t="n">
-        <v>69.78</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>67.09999999999999</v>
+        <v>59.35</v>
       </c>
       <c r="E173" t="n">
         <v>71.47</v>
@@ -3919,13 +3919,13 @@
         <v>45365</v>
       </c>
       <c r="B174" t="n">
-        <v>70.67</v>
+        <v>71.12</v>
       </c>
       <c r="C174" t="n">
-        <v>69.69</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>68.43000000000001</v>
+        <v>60.97</v>
       </c>
       <c r="E174" t="n">
         <v>78.62</v>
@@ -3936,13 +3936,13 @@
         <v>45366</v>
       </c>
       <c r="B175" t="n">
-        <v>69.53</v>
+        <v>72.22</v>
       </c>
       <c r="C175" t="n">
-        <v>70.70999999999999</v>
+        <v>72.89</v>
       </c>
       <c r="D175" t="n">
-        <v>71.14</v>
+        <v>63.45</v>
       </c>
       <c r="E175" t="n">
         <v>80.05</v>
@@ -3953,13 +3953,13 @@
         <v>45369</v>
       </c>
       <c r="B176" t="n">
-        <v>68</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C176" t="n">
-        <v>70.02</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>73.33</v>
+        <v>65.11</v>
       </c>
       <c r="E176" t="n">
         <v>87.93000000000001</v>
@@ -3970,13 +3970,13 @@
         <v>45370</v>
       </c>
       <c r="B177" t="n">
-        <v>66.02</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>66.86</v>
+        <v>68.73</v>
       </c>
       <c r="D177" t="n">
-        <v>76.5</v>
+        <v>66.84</v>
       </c>
       <c r="E177" t="n">
         <v>83.56999999999999</v>
@@ -3987,13 +3987,13 @@
         <v>45371</v>
       </c>
       <c r="B178" t="n">
-        <v>65.26000000000001</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="C178" t="n">
-        <v>66.86</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="D178" t="n">
-        <v>76.89</v>
+        <v>66.72</v>
       </c>
       <c r="E178" t="n">
         <v>91.93000000000001</v>
@@ -4004,13 +4004,13 @@
         <v>45372</v>
       </c>
       <c r="B179" t="n">
-        <v>63.12</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="C179" t="n">
-        <v>66.36</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>79.72</v>
+        <v>68.66</v>
       </c>
       <c r="E179" t="n">
         <v>92.3</v>
@@ -4021,13 +4021,13 @@
         <v>45373</v>
       </c>
       <c r="B180" t="n">
-        <v>62.41</v>
+        <v>79.45</v>
       </c>
       <c r="C180" t="n">
-        <v>66.89</v>
+        <v>72.37</v>
       </c>
       <c r="D180" t="n">
-        <v>80.97</v>
+        <v>70.61</v>
       </c>
       <c r="E180" t="n">
         <v>92.65000000000001</v>
@@ -4038,13 +4038,13 @@
         <v>45376</v>
       </c>
       <c r="B181" t="n">
-        <v>61.97</v>
+        <v>80.87</v>
       </c>
       <c r="C181" t="n">
-        <v>65.47</v>
+        <v>71.09</v>
       </c>
       <c r="D181" t="n">
-        <v>82.14</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="E181" t="n">
         <v>91</v>
@@ -4055,13 +4055,13 @@
         <v>45377</v>
       </c>
       <c r="B182" t="n">
-        <v>61.69</v>
+        <v>82.09</v>
       </c>
       <c r="C182" t="n">
-        <v>72.47</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="D182" t="n">
-        <v>82.84999999999999</v>
+        <v>73.19</v>
       </c>
       <c r="E182" t="n">
         <v>97.23999999999999</v>
@@ -4072,13 +4072,13 @@
         <v>45378</v>
       </c>
       <c r="B183" t="n">
-        <v>61.18</v>
+        <v>83.44</v>
       </c>
       <c r="C183" t="n">
-        <v>79.8</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="D183" t="n">
-        <v>84.37</v>
+        <v>75.33</v>
       </c>
       <c r="E183" t="n">
         <v>95.98999999999999</v>
@@ -4089,13 +4089,13 @@
         <v>45379</v>
       </c>
       <c r="B184" t="n">
-        <v>60.53</v>
+        <v>84.73</v>
       </c>
       <c r="C184" t="n">
-        <v>85.56999999999999</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="D184" t="n">
-        <v>84.8</v>
+        <v>77.19</v>
       </c>
       <c r="E184" t="n">
         <v>95.09999999999999</v>
@@ -4106,13 +4106,13 @@
         <v>45380</v>
       </c>
       <c r="B185" t="n">
-        <v>60.7</v>
+        <v>85.86</v>
       </c>
       <c r="C185" t="n">
-        <v>89.06999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D185" t="n">
-        <v>84.58</v>
+        <v>78.72</v>
       </c>
       <c r="E185" t="n">
         <v>102.2</v>
@@ -4123,13 +4123,13 @@
         <v>45383</v>
       </c>
       <c r="B186" t="n">
-        <v>60.13</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="C186" t="n">
-        <v>91.48999999999999</v>
+        <v>65.19</v>
       </c>
       <c r="D186" t="n">
-        <v>85.83</v>
+        <v>81.03</v>
       </c>
       <c r="E186" t="n">
         <v>101.57</v>
@@ -4140,13 +4140,13 @@
         <v>45384</v>
       </c>
       <c r="B187" t="n">
-        <v>60.44</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="C187" t="n">
-        <v>92.17</v>
+        <v>66.84</v>
       </c>
       <c r="D187" t="n">
-        <v>85.45</v>
+        <v>82.02</v>
       </c>
       <c r="E187" t="n">
         <v>101.9</v>
@@ -4157,13 +4157,13 @@
         <v>45385</v>
       </c>
       <c r="B188" t="n">
-        <v>60.48</v>
+        <v>89.25</v>
       </c>
       <c r="C188" t="n">
-        <v>91.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>85.81</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="E188" t="n">
         <v>99.3</v>
@@ -4174,13 +4174,13 @@
         <v>45386</v>
       </c>
       <c r="B189" t="n">
-        <v>61.27</v>
+        <v>89.87</v>
       </c>
       <c r="C189" t="n">
-        <v>91.45</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>84.62</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E189" t="n">
         <v>98.45</v>
@@ -4191,13 +4191,13 @@
         <v>45387</v>
       </c>
       <c r="B190" t="n">
-        <v>61.89</v>
+        <v>90.31</v>
       </c>
       <c r="C190" t="n">
-        <v>93.97</v>
+        <v>62.15</v>
       </c>
       <c r="D190" t="n">
-        <v>84.17</v>
+        <v>82.5</v>
       </c>
       <c r="E190" t="n">
         <v>104.76</v>
@@ -4208,13 +4208,13 @@
         <v>45390</v>
       </c>
       <c r="B191" t="n">
-        <v>62.23</v>
+        <v>90.91</v>
       </c>
       <c r="C191" t="n">
-        <v>94.33</v>
+        <v>59.58</v>
       </c>
       <c r="D191" t="n">
-        <v>84.31999999999999</v>
+        <v>84.98</v>
       </c>
       <c r="E191" t="n">
         <v>103.16</v>
@@ -4225,13 +4225,13 @@
         <v>45391</v>
       </c>
       <c r="B192" t="n">
-        <v>63.1</v>
+        <v>91.42</v>
       </c>
       <c r="C192" t="n">
-        <v>97.13</v>
+        <v>60.15</v>
       </c>
       <c r="D192" t="n">
-        <v>84.16</v>
+        <v>85.52</v>
       </c>
       <c r="E192" t="n">
         <v>103.25</v>
@@ -4242,13 +4242,13 @@
         <v>45392</v>
       </c>
       <c r="B193" t="n">
-        <v>64.16</v>
+        <v>91.83</v>
       </c>
       <c r="C193" t="n">
-        <v>95.72</v>
+        <v>61.13</v>
       </c>
       <c r="D193" t="n">
-        <v>83.31</v>
+        <v>85.59</v>
       </c>
       <c r="E193" t="n">
         <v>99.98</v>
@@ -4259,13 +4259,13 @@
         <v>45393</v>
       </c>
       <c r="B194" t="n">
-        <v>66.28</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>92.3</v>
+        <v>63.38</v>
       </c>
       <c r="D194" t="n">
-        <v>82.38</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="E194" t="n">
         <v>100.7</v>
@@ -4276,13 +4276,13 @@
         <v>45394</v>
       </c>
       <c r="B195" t="n">
-        <v>67.23999999999999</v>
+        <v>91.72</v>
       </c>
       <c r="C195" t="n">
-        <v>92.22</v>
+        <v>63.48</v>
       </c>
       <c r="D195" t="n">
-        <v>81.93000000000001</v>
+        <v>83.58</v>
       </c>
       <c r="E195" t="n">
         <v>96.14</v>
@@ -4293,13 +4293,13 @@
         <v>45397</v>
       </c>
       <c r="B196" t="n">
-        <v>68.41</v>
+        <v>91.23999999999999</v>
       </c>
       <c r="C196" t="n">
-        <v>90.86</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D196" t="n">
-        <v>80.34</v>
+        <v>81.48</v>
       </c>
       <c r="E196" t="n">
         <v>90.90000000000001</v>
@@ -4310,13 +4310,13 @@
         <v>45398</v>
       </c>
       <c r="B197" t="n">
-        <v>69.54000000000001</v>
+        <v>90.52</v>
       </c>
       <c r="C197" t="n">
-        <v>87.69</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>78.83</v>
+        <v>79.64</v>
       </c>
       <c r="E197" t="n">
         <v>89.48999999999999</v>
@@ -4327,13 +4327,13 @@
         <v>45399</v>
       </c>
       <c r="B198" t="n">
-        <v>70.41</v>
+        <v>89.62</v>
       </c>
       <c r="C198" t="n">
-        <v>82.48</v>
+        <v>71.66</v>
       </c>
       <c r="D198" t="n">
-        <v>78.05</v>
+        <v>78.22</v>
       </c>
       <c r="E198" t="n">
         <v>90.7</v>
@@ -4344,13 +4344,13 @@
         <v>45400</v>
       </c>
       <c r="B199" t="n">
-        <v>70.91</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="C199" t="n">
-        <v>81.5</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>77.94</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="E199" t="n">
         <v>87</v>
@@ -4361,13 +4361,13 @@
         <v>45401</v>
       </c>
       <c r="B200" t="n">
-        <v>71.52</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C200" t="n">
-        <v>83.02</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="D200" t="n">
-        <v>76.62</v>
+        <v>76.55</v>
       </c>
       <c r="E200" t="n">
         <v>90.43000000000001</v>
@@ -4378,13 +4378,13 @@
         <v>45404</v>
       </c>
       <c r="B201" t="n">
-        <v>71.87</v>
+        <v>87.23999999999999</v>
       </c>
       <c r="C201" t="n">
-        <v>80.40000000000001</v>
+        <v>71.64</v>
       </c>
       <c r="D201" t="n">
-        <v>76.56</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="E201" t="n">
         <v>88.75</v>
@@ -4395,13 +4395,13 @@
         <v>45405</v>
       </c>
       <c r="B202" t="n">
-        <v>72.31999999999999</v>
+        <v>86.63</v>
       </c>
       <c r="C202" t="n">
-        <v>79.04000000000001</v>
+        <v>71.13</v>
       </c>
       <c r="D202" t="n">
-        <v>76.06</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E202" t="n">
         <v>86.41</v>
@@ -4412,13 +4412,13 @@
         <v>45406</v>
       </c>
       <c r="B203" t="n">
-        <v>73.23</v>
+        <v>85.86</v>
       </c>
       <c r="C203" t="n">
-        <v>78.90000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D203" t="n">
-        <v>75.23999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="E203" t="n">
         <v>88.55</v>
@@ -4429,13 +4429,13 @@
         <v>45407</v>
       </c>
       <c r="B204" t="n">
-        <v>73.90000000000001</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="C204" t="n">
-        <v>79.23</v>
+        <v>73.56</v>
       </c>
       <c r="D204" t="n">
-        <v>75.41</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="E204" t="n">
         <v>85.54000000000001</v>
@@ -4446,13 +4446,13 @@
         <v>45408</v>
       </c>
       <c r="B205" t="n">
-        <v>74.95</v>
+        <v>84.62</v>
       </c>
       <c r="C205" t="n">
-        <v>79.09</v>
+        <v>74.23</v>
       </c>
       <c r="D205" t="n">
-        <v>74.17</v>
+        <v>72.58</v>
       </c>
       <c r="E205" t="n">
         <v>83.15000000000001</v>
@@ -4463,13 +4463,13 @@
         <v>45411</v>
       </c>
       <c r="B206" t="n">
-        <v>75.84999999999999</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="C206" t="n">
-        <v>81.2</v>
+        <v>74.02</v>
       </c>
       <c r="D206" t="n">
-        <v>73.58</v>
+        <v>71.31</v>
       </c>
       <c r="E206" t="n">
         <v>85.23</v>
@@ -4480,13 +4480,13 @@
         <v>45412</v>
       </c>
       <c r="B207" t="n">
-        <v>76.43000000000001</v>
+        <v>83.27</v>
       </c>
       <c r="C207" t="n">
-        <v>85.84</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="D207" t="n">
-        <v>73.84</v>
+        <v>72.28</v>
       </c>
       <c r="E207" t="n">
         <v>89.8</v>
@@ -4497,13 +4497,13 @@
         <v>45413</v>
       </c>
       <c r="B208" t="n">
-        <v>76.52</v>
+        <v>83.28</v>
       </c>
       <c r="C208" t="n">
-        <v>89.34</v>
+        <v>76.67</v>
       </c>
       <c r="D208" t="n">
-        <v>75.2</v>
+        <v>75.64</v>
       </c>
       <c r="E208" t="n">
         <v>86.56</v>
@@ -4514,13 +4514,13 @@
         <v>45414</v>
       </c>
       <c r="B209" t="n">
-        <v>77.25</v>
+        <v>83.34</v>
       </c>
       <c r="C209" t="n">
-        <v>93.59999999999999</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="D209" t="n">
-        <v>74.7</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="E209" t="n">
         <v>87.36</v>
@@ -4531,13 +4531,13 @@
         <v>45415</v>
       </c>
       <c r="B210" t="n">
-        <v>77.63</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C210" t="n">
-        <v>91.95</v>
+        <v>77.64</v>
       </c>
       <c r="D210" t="n">
-        <v>75.11</v>
+        <v>74.11</v>
       </c>
       <c r="E210" t="n">
         <v>94.66</v>
@@ -4548,13 +4548,13 @@
         <v>45418</v>
       </c>
       <c r="B211" t="n">
-        <v>77.51000000000001</v>
+        <v>83.84</v>
       </c>
       <c r="C211" t="n">
-        <v>100.13</v>
+        <v>77.92</v>
       </c>
       <c r="D211" t="n">
-        <v>76.33</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="E211" t="n">
         <v>91.78</v>
@@ -4565,13 +4565,13 @@
         <v>45419</v>
       </c>
       <c r="B212" t="n">
-        <v>77.84</v>
+        <v>84.27</v>
       </c>
       <c r="C212" t="n">
-        <v>101.19</v>
+        <v>75.95999999999999</v>
       </c>
       <c r="D212" t="n">
-        <v>76.26000000000001</v>
+        <v>76.25</v>
       </c>
       <c r="E212" t="n">
         <v>95.48</v>
@@ -4582,13 +4582,13 @@
         <v>45420</v>
       </c>
       <c r="B213" t="n">
-        <v>77.65000000000001</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C213" t="n">
-        <v>100.79</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="D213" t="n">
-        <v>76.95999999999999</v>
+        <v>77.33</v>
       </c>
       <c r="E213" t="n">
         <v>94.93000000000001</v>
@@ -4599,13 +4599,13 @@
         <v>45421</v>
       </c>
       <c r="B214" t="n">
-        <v>77.44</v>
+        <v>85.34</v>
       </c>
       <c r="C214" t="n">
-        <v>101.97</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="D214" t="n">
-        <v>77.19</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E214" t="n">
         <v>93.05</v>
@@ -4616,13 +4616,13 @@
         <v>45422</v>
       </c>
       <c r="B215" t="n">
-        <v>77.42</v>
+        <v>85.75</v>
       </c>
       <c r="C215" t="n">
-        <v>102.93</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="D215" t="n">
-        <v>77.09</v>
+        <v>78.02</v>
       </c>
       <c r="E215" t="n">
         <v>90.16</v>
@@ -4633,13 +4633,13 @@
         <v>45425</v>
       </c>
       <c r="B216" t="n">
-        <v>77.41</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="C216" t="n">
-        <v>101.1</v>
+        <v>82.7</v>
       </c>
       <c r="D216" t="n">
-        <v>76.62</v>
+        <v>77.5</v>
       </c>
       <c r="E216" t="n">
         <v>90.43000000000001</v>
@@ -4650,13 +4650,13 @@
         <v>45426</v>
       </c>
       <c r="B217" t="n">
-        <v>77.11</v>
+        <v>85.59</v>
       </c>
       <c r="C217" t="n">
-        <v>100.62</v>
+        <v>86.98</v>
       </c>
       <c r="D217" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E217" t="n">
         <v>94.79000000000001</v>
@@ -4667,13 +4667,13 @@
         <v>45427</v>
       </c>
       <c r="B218" t="n">
-        <v>76.39</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>97.11</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D218" t="n">
-        <v>77.16</v>
+        <v>80.37</v>
       </c>
       <c r="E218" t="n">
         <v>95.40000000000001</v>
@@ -4684,13 +4684,13 @@
         <v>45428</v>
       </c>
       <c r="B219" t="n">
-        <v>75.63</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="C219" t="n">
-        <v>96.09</v>
+        <v>85.97</v>
       </c>
       <c r="D219" t="n">
-        <v>77.93000000000001</v>
+        <v>81.86</v>
       </c>
       <c r="E219" t="n">
         <v>91.15000000000001</v>
@@ -4701,13 +4701,13 @@
         <v>45429</v>
       </c>
       <c r="B220" t="n">
-        <v>75.68000000000001</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>93.23999999999999</v>
+        <v>86.03</v>
       </c>
       <c r="D220" t="n">
-        <v>77.08</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="E220" t="n">
         <v>91.45</v>
@@ -4718,13 +4718,13 @@
         <v>45432</v>
       </c>
       <c r="B221" t="n">
-        <v>75.62</v>
+        <v>85.78</v>
       </c>
       <c r="C221" t="n">
-        <v>93.42</v>
+        <v>88.77</v>
       </c>
       <c r="D221" t="n">
-        <v>76.47</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="E221" t="n">
         <v>86.98</v>
@@ -4735,13 +4735,13 @@
         <v>45433</v>
       </c>
       <c r="B222" t="n">
-        <v>75.83</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="C222" t="n">
-        <v>92.91</v>
+        <v>85.52</v>
       </c>
       <c r="D222" t="n">
-        <v>75.42</v>
+        <v>76.39</v>
       </c>
       <c r="E222" t="n">
         <v>84.83</v>
@@ -4752,13 +4752,13 @@
         <v>45434</v>
       </c>
       <c r="B223" t="n">
-        <v>75.93000000000001</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="C223" t="n">
-        <v>85.65000000000001</v>
+        <v>82.55</v>
       </c>
       <c r="D223" t="n">
-        <v>74.61</v>
+        <v>74.97</v>
       </c>
       <c r="E223" t="n">
         <v>85.18000000000001</v>
@@ -4769,13 +4769,13 @@
         <v>45435</v>
       </c>
       <c r="B224" t="n">
-        <v>75.92</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="C224" t="n">
-        <v>83.73</v>
+        <v>79.88</v>
       </c>
       <c r="D224" t="n">
-        <v>74.34</v>
+        <v>74.63</v>
       </c>
       <c r="E224" t="n">
         <v>84.62</v>
@@ -4786,13 +4786,13 @@
         <v>45436</v>
       </c>
       <c r="B225" t="n">
-        <v>76.02</v>
+        <v>83.05</v>
       </c>
       <c r="C225" t="n">
-        <v>86.41</v>
+        <v>78.17</v>
       </c>
       <c r="D225" t="n">
-        <v>73.62</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="E225" t="n">
         <v>85.38</v>
@@ -4803,13 +4803,13 @@
         <v>45439</v>
       </c>
       <c r="B226" t="n">
-        <v>75.88</v>
+        <v>82.44</v>
       </c>
       <c r="C226" t="n">
-        <v>85.59999999999999</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="D226" t="n">
-        <v>73.77</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="E226" t="n">
         <v>87.27</v>
@@ -4820,13 +4820,13 @@
         <v>45440</v>
       </c>
       <c r="B227" t="n">
-        <v>75.81</v>
+        <v>82.08</v>
       </c>
       <c r="C227" t="n">
-        <v>83.54000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="D227" t="n">
-        <v>73.90000000000001</v>
+        <v>73.75</v>
       </c>
       <c r="E227" t="n">
         <v>84.95999999999999</v>
@@ -4837,13 +4837,13 @@
         <v>45441</v>
       </c>
       <c r="B228" t="n">
-        <v>76.23</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C228" t="n">
-        <v>85.89</v>
+        <v>74.66</v>
       </c>
       <c r="D228" t="n">
-        <v>73.20999999999999</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="E228" t="n">
         <v>85</v>
@@ -4854,13 +4854,13 @@
         <v>45442</v>
       </c>
       <c r="B229" t="n">
-        <v>76.53</v>
+        <v>81.34</v>
       </c>
       <c r="C229" t="n">
-        <v>84.45999999999999</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="D229" t="n">
-        <v>72.97</v>
+        <v>71.06</v>
       </c>
       <c r="E229" t="n">
         <v>88.18000000000001</v>
@@ -4871,13 +4871,13 @@
         <v>45443</v>
       </c>
       <c r="B230" t="n">
-        <v>76.06999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="C230" t="n">
-        <v>84.56</v>
+        <v>76.19</v>
       </c>
       <c r="D230" t="n">
-        <v>74.8</v>
+        <v>75.56</v>
       </c>
       <c r="E230" t="n">
         <v>88.52</v>
@@ -4888,13 +4888,13 @@
         <v>45446</v>
       </c>
       <c r="B231" t="n">
-        <v>75.98</v>
+        <v>81.97</v>
       </c>
       <c r="C231" t="n">
-        <v>89.88</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="D231" t="n">
-        <v>75.5</v>
+        <v>76.31</v>
       </c>
       <c r="E231" t="n">
         <v>87.95</v>
@@ -4905,13 +4905,13 @@
         <v>45447</v>
       </c>
       <c r="B232" t="n">
-        <v>76.15000000000001</v>
+        <v>82.48</v>
       </c>
       <c r="C232" t="n">
-        <v>90.40000000000001</v>
+        <v>84.95</v>
       </c>
       <c r="D232" t="n">
-        <v>75.63</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="E232" t="n">
         <v>87.04000000000001</v>
@@ -4922,13 +4922,13 @@
         <v>45448</v>
       </c>
       <c r="B233" t="n">
-        <v>76.52</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="C233" t="n">
-        <v>95.56</v>
+        <v>84.2</v>
       </c>
       <c r="D233" t="n">
-        <v>75.33</v>
+        <v>74</v>
       </c>
       <c r="E233" t="n">
         <v>85.51000000000001</v>
@@ -4939,13 +4939,13 @@
         <v>45449</v>
       </c>
       <c r="B234" t="n">
-        <v>77.11</v>
+        <v>82.67</v>
       </c>
       <c r="C234" t="n">
-        <v>97.72</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="D234" t="n">
-        <v>74.47</v>
+        <v>72.25</v>
       </c>
       <c r="E234" t="n">
         <v>84.11</v>
@@ -4956,13 +4956,13 @@
         <v>45450</v>
       </c>
       <c r="B235" t="n">
-        <v>77.7</v>
+        <v>82.28</v>
       </c>
       <c r="C235" t="n">
-        <v>97.47</v>
+        <v>87.09</v>
       </c>
       <c r="D235" t="n">
-        <v>73.40000000000001</v>
+        <v>71.05</v>
       </c>
       <c r="E235" t="n">
         <v>86.59999999999999</v>
@@ -4973,13 +4973,13 @@
         <v>45453</v>
       </c>
       <c r="B236" t="n">
-        <v>77.45999999999999</v>
+        <v>82.08</v>
       </c>
       <c r="C236" t="n">
-        <v>97.86</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D236" t="n">
-        <v>74.2</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="E236" t="n">
         <v>85.75</v>
@@ -4990,13 +4990,13 @@
         <v>45454</v>
       </c>
       <c r="B237" t="n">
-        <v>77.58</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="C237" t="n">
-        <v>100.7</v>
+        <v>81</v>
       </c>
       <c r="D237" t="n">
-        <v>74.04000000000001</v>
+        <v>72.89</v>
       </c>
       <c r="E237" t="n">
         <v>86.93000000000001</v>
@@ -5007,13 +5007,13 @@
         <v>45455</v>
       </c>
       <c r="B238" t="n">
-        <v>77.47</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="C238" t="n">
-        <v>96.2</v>
+        <v>80.86</v>
       </c>
       <c r="D238" t="n">
-        <v>74.58</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E238" t="n">
         <v>86.01000000000001</v>
@@ -5024,13 +5024,13 @@
         <v>45456</v>
       </c>
       <c r="B239" t="n">
-        <v>77.76000000000001</v>
+        <v>81.91</v>
       </c>
       <c r="C239" t="n">
-        <v>96.66</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="D239" t="n">
-        <v>74.36</v>
+        <v>72.87</v>
       </c>
       <c r="E239" t="n">
         <v>88.93000000000001</v>
@@ -5041,13 +5041,13 @@
         <v>45457</v>
       </c>
       <c r="B240" t="n">
-        <v>77.41</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C240" t="n">
-        <v>95.53</v>
+        <v>88.02</v>
       </c>
       <c r="D240" t="n">
-        <v>75.40000000000001</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="E240" t="n">
         <v>90.48999999999999</v>
@@ -5058,13 +5058,13 @@
         <v>45460</v>
       </c>
       <c r="B241" t="n">
-        <v>77.08</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="C241" t="n">
-        <v>100.42</v>
+        <v>90.7</v>
       </c>
       <c r="D241" t="n">
-        <v>76.09999999999999</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="E241" t="n">
         <v>87.58</v>
@@ -5075,13 +5075,13 @@
         <v>45461</v>
       </c>
       <c r="B242" t="n">
-        <v>77.06</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="C242" t="n">
-        <v>99.19</v>
+        <v>94.02</v>
       </c>
       <c r="D242" t="n">
-        <v>75.72</v>
+        <v>75.45999999999999</v>
       </c>
       <c r="E242" t="n">
         <v>87.04000000000001</v>
@@ -5092,13 +5092,13 @@
         <v>45462</v>
       </c>
       <c r="B243" t="n">
-        <v>76.89</v>
+        <v>83.02</v>
       </c>
       <c r="C243" t="n">
-        <v>98.09999999999999</v>
+        <v>93.38</v>
       </c>
       <c r="D243" t="n">
-        <v>75.45999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="E243" t="n">
         <v>87.7</v>
@@ -5109,13 +5109,13 @@
         <v>45463</v>
       </c>
       <c r="B244" t="n">
-        <v>76.7</v>
+        <v>82.95</v>
       </c>
       <c r="C244" t="n">
-        <v>98.05</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="D244" t="n">
-        <v>75.18000000000001</v>
+        <v>75.48999999999999</v>
       </c>
       <c r="E244" t="n">
         <v>86.67</v>
@@ -5126,13 +5126,13 @@
         <v>45464</v>
       </c>
       <c r="B245" t="n">
-        <v>76.58</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="C245" t="n">
-        <v>101.62</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="D245" t="n">
-        <v>74.59</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E245" t="n">
         <v>86.01000000000001</v>
@@ -5143,13 +5143,13 @@
         <v>45467</v>
       </c>
       <c r="B246" t="n">
-        <v>76.59999999999999</v>
+        <v>82.28</v>
       </c>
       <c r="C246" t="n">
-        <v>93.17</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="D246" t="n">
-        <v>73.77</v>
+        <v>73.31</v>
       </c>
       <c r="E246" t="n">
         <v>85.98999999999999</v>
@@ -5160,13 +5160,13 @@
         <v>45468</v>
       </c>
       <c r="B247" t="n">
-        <v>76.47</v>
+        <v>81.8</v>
       </c>
       <c r="C247" t="n">
-        <v>92.03</v>
+        <v>80.7</v>
       </c>
       <c r="D247" t="n">
-        <v>73.41</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E247" t="n">
         <v>86.40000000000001</v>
@@ -5177,13 +5177,13 @@
         <v>45469</v>
       </c>
       <c r="B248" t="n">
-        <v>76.2</v>
+        <v>81.37</v>
       </c>
       <c r="C248" t="n">
-        <v>88.78</v>
+        <v>77.56</v>
       </c>
       <c r="D248" t="n">
-        <v>73.34</v>
+        <v>72.78</v>
       </c>
       <c r="E248" t="n">
         <v>87.79000000000001</v>
@@ -5194,13 +5194,13 @@
         <v>45470</v>
       </c>
       <c r="B249" t="n">
-        <v>75.63</v>
+        <v>81.19</v>
       </c>
       <c r="C249" t="n">
-        <v>93.55</v>
+        <v>76.61</v>
       </c>
       <c r="D249" t="n">
-        <v>74.15000000000001</v>
+        <v>74.05</v>
       </c>
       <c r="E249" t="n">
         <v>92.90000000000001</v>
@@ -5211,13 +5211,13 @@
         <v>45471</v>
       </c>
       <c r="B250" t="n">
-        <v>74.84999999999999</v>
+        <v>81.59</v>
       </c>
       <c r="C250" t="n">
-        <v>95.23</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="D250" t="n">
-        <v>75.7</v>
+        <v>76.77</v>
       </c>
       <c r="E250" t="n">
         <v>100.35</v>
@@ -5228,13 +5228,13 @@
         <v>45474</v>
       </c>
       <c r="B251" t="n">
-        <v>74.06</v>
+        <v>82.52</v>
       </c>
       <c r="C251" t="n">
-        <v>92.05</v>
+        <v>85.59</v>
       </c>
       <c r="D251" t="n">
-        <v>77.23999999999999</v>
+        <v>77.92</v>
       </c>
       <c r="E251" t="n">
         <v>100.1</v>
@@ -5245,13 +5245,13 @@
         <v>45475</v>
       </c>
       <c r="B252" t="n">
-        <v>73.48</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C252" t="n">
-        <v>88.69</v>
+        <v>91.47</v>
       </c>
       <c r="D252" t="n">
-        <v>77.81999999999999</v>
+        <v>78.11</v>
       </c>
       <c r="E252" t="n">
         <v>101.19</v>
@@ -5262,13 +5262,13 @@
         <v>45476</v>
       </c>
       <c r="B253" t="n">
-        <v>72.78</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="C253" t="n">
-        <v>95.73</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="D253" t="n">
-        <v>78.39</v>
+        <v>78.84</v>
       </c>
       <c r="E253" t="n">
         <v>99.65000000000001</v>
@@ -5279,13 +5279,13 @@
         <v>45477</v>
       </c>
       <c r="B254" t="n">
-        <v>72.33</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="C254" t="n">
-        <v>94.31</v>
+        <v>93.37</v>
       </c>
       <c r="D254" t="n">
-        <v>78.31999999999999</v>
+        <v>78.78</v>
       </c>
       <c r="E254" t="n">
         <v>95.23</v>
@@ -5296,13 +5296,13 @@
         <v>45478</v>
       </c>
       <c r="B255" t="n">
-        <v>72.25</v>
+        <v>86.16</v>
       </c>
       <c r="C255" t="n">
-        <v>97.45</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>77.64</v>
+        <v>77.92</v>
       </c>
       <c r="E255" t="n">
         <v>85.70999999999999</v>
@@ -5313,13 +5313,13 @@
         <v>45481</v>
       </c>
       <c r="B256" t="n">
-        <v>72.98999999999999</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C256" t="n">
-        <v>94.76000000000001</v>
+        <v>95.36</v>
       </c>
       <c r="D256" t="n">
-        <v>75.84</v>
+        <v>74.36</v>
       </c>
       <c r="E256" t="n">
         <v>86.09</v>
@@ -5330,13 +5330,13 @@
         <v>45482</v>
       </c>
       <c r="B257" t="n">
-        <v>73.23999999999999</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C257" t="n">
-        <v>97.06</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="D257" t="n">
-        <v>75.25</v>
+        <v>73.52</v>
       </c>
       <c r="E257" t="n">
         <v>84.48999999999999</v>
@@ -5347,13 +5347,13 @@
         <v>45483</v>
       </c>
       <c r="B258" t="n">
-        <v>73.62</v>
+        <v>84.87</v>
       </c>
       <c r="C258" t="n">
-        <v>97.42</v>
+        <v>92.53</v>
       </c>
       <c r="D258" t="n">
-        <v>74.51000000000001</v>
+        <v>72.84</v>
       </c>
       <c r="E258" t="n">
         <v>91.12</v>
@@ -5364,13 +5364,13 @@
         <v>45484</v>
       </c>
       <c r="B259" t="n">
-        <v>73.34999999999999</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="C259" t="n">
-        <v>96.08</v>
+        <v>94.73</v>
       </c>
       <c r="D259" t="n">
-        <v>75.43000000000001</v>
+        <v>74.47</v>
       </c>
       <c r="E259" t="n">
         <v>92.33</v>
@@ -5381,13 +5381,13 @@
         <v>45485</v>
       </c>
       <c r="B260" t="n">
-        <v>73.40000000000001</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="C260" t="n">
-        <v>93.23999999999999</v>
+        <v>91.59</v>
       </c>
       <c r="D260" t="n">
-        <v>75.64</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="E260" t="n">
         <v>89.98</v>
@@ -5398,13 +5398,13 @@
         <v>45488</v>
       </c>
       <c r="B261" t="n">
-        <v>73.90000000000001</v>
+        <v>84.42</v>
       </c>
       <c r="C261" t="n">
-        <v>96.42</v>
+        <v>95.23</v>
       </c>
       <c r="D261" t="n">
-        <v>75.05</v>
+        <v>73.86</v>
       </c>
       <c r="E261" t="n">
         <v>88.45</v>
@@ -5415,13 +5415,13 @@
         <v>45489</v>
       </c>
       <c r="B262" t="n">
-        <v>74.38</v>
+        <v>84.23</v>
       </c>
       <c r="C262" t="n">
-        <v>95.8</v>
+        <v>93.39</v>
       </c>
       <c r="D262" t="n">
-        <v>74.76000000000001</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="E262" t="n">
         <v>86.67</v>
@@ -5432,13 +5432,13 @@
         <v>45490</v>
       </c>
       <c r="B263" t="n">
-        <v>74.92</v>
+        <v>83.91</v>
       </c>
       <c r="C263" t="n">
-        <v>98.25</v>
+        <v>96.86</v>
       </c>
       <c r="D263" t="n">
-        <v>74.26000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E263" t="n">
         <v>86.90000000000001</v>
@@ -5449,13 +5449,13 @@
         <v>45491</v>
       </c>
       <c r="B264" t="n">
-        <v>75.25</v>
+        <v>83.63</v>
       </c>
       <c r="C264" t="n">
-        <v>97.77</v>
+        <v>94.31</v>
       </c>
       <c r="D264" t="n">
-        <v>74.15000000000001</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="E264" t="n">
         <v>86.54000000000001</v>
@@ -5466,13 +5466,13 @@
         <v>45492</v>
       </c>
       <c r="B265" t="n">
-        <v>75.64</v>
+        <v>83.37</v>
       </c>
       <c r="C265" t="n">
-        <v>96.83</v>
+        <v>94.58</v>
       </c>
       <c r="D265" t="n">
-        <v>73.81</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="E265" t="n">
         <v>89.42</v>
@@ -5483,13 +5483,13 @@
         <v>45495</v>
       </c>
       <c r="B266" t="n">
-        <v>75.36</v>
+        <v>83.34</v>
       </c>
       <c r="C266" t="n">
-        <v>98.25</v>
+        <v>92.55</v>
       </c>
       <c r="D266" t="n">
-        <v>74.94</v>
+        <v>74.13</v>
       </c>
       <c r="E266" t="n">
         <v>85.2</v>
@@ -5500,13 +5500,13 @@
         <v>45496</v>
       </c>
       <c r="B267" t="n">
-        <v>75.87</v>
+        <v>83.11</v>
       </c>
       <c r="C267" t="n">
-        <v>99.20999999999999</v>
+        <v>88.31</v>
       </c>
       <c r="D267" t="n">
-        <v>73.93000000000001</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="E267" t="n">
         <v>85.87</v>
@@ -5517,13 +5517,13 @@
         <v>45497</v>
       </c>
       <c r="B268" t="n">
-        <v>76.02</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C268" t="n">
-        <v>96.43000000000001</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D268" t="n">
-        <v>73.93000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="E268" t="n">
         <v>82.02</v>
@@ -5534,13 +5534,13 @@
         <v>45498</v>
       </c>
       <c r="B269" t="n">
-        <v>76.58</v>
+        <v>82.38</v>
       </c>
       <c r="C269" t="n">
-        <v>95.98</v>
+        <v>79.84</v>
       </c>
       <c r="D269" t="n">
-        <v>73.03</v>
+        <v>70.48</v>
       </c>
       <c r="E269" t="n">
         <v>77.37</v>
@@ -5551,13 +5551,13 @@
         <v>45499</v>
       </c>
       <c r="B270" t="n">
-        <v>77.2</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="C270" t="n">
-        <v>89.14</v>
+        <v>77.62</v>
       </c>
       <c r="D270" t="n">
-        <v>72.44</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="E270" t="n">
         <v>77.7</v>
@@ -5568,13 +5568,13 @@
         <v>45502</v>
       </c>
       <c r="B271" t="n">
-        <v>77.8</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="C271" t="n">
-        <v>86.90000000000001</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="D271" t="n">
-        <v>72.09</v>
+        <v>68.12</v>
       </c>
       <c r="E271" t="n">
         <v>75.92</v>
@@ -5585,13 +5585,13 @@
         <v>45503</v>
       </c>
       <c r="B272" t="n">
-        <v>78.36</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="C272" t="n">
-        <v>86.38</v>
+        <v>75.3</v>
       </c>
       <c r="D272" t="n">
-        <v>71.54000000000001</v>
+        <v>66.58</v>
       </c>
       <c r="E272" t="n">
         <v>77.27</v>
@@ -5602,13 +5602,13 @@
         <v>45504</v>
       </c>
       <c r="B273" t="n">
-        <v>78.94</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="C273" t="n">
-        <v>87.01000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D273" t="n">
-        <v>71.09</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="E273" t="n">
         <v>75.3</v>
@@ -5619,13 +5619,13 @@
         <v>45505</v>
       </c>
       <c r="B274" t="n">
-        <v>79.67</v>
+        <v>78.86</v>
       </c>
       <c r="C274" t="n">
-        <v>85.03</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="D274" t="n">
-        <v>70.29000000000001</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="E274" t="n">
         <v>78.47</v>
@@ -5636,13 +5636,13 @@
         <v>45506</v>
       </c>
       <c r="B275" t="n">
-        <v>80.01000000000001</v>
+        <v>78.39</v>
       </c>
       <c r="C275" t="n">
-        <v>86.36</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D275" t="n">
-        <v>70.79000000000001</v>
+        <v>65.92</v>
       </c>
       <c r="E275" t="n">
         <v>76.15000000000001</v>
@@ -5653,13 +5653,13 @@
         <v>45509</v>
       </c>
       <c r="B276" t="n">
-        <v>80.48999999999999</v>
+        <v>77.95</v>
       </c>
       <c r="C276" t="n">
-        <v>85.78</v>
+        <v>73.37</v>
       </c>
       <c r="D276" t="n">
-        <v>70.08</v>
+        <v>65.2</v>
       </c>
       <c r="E276" t="n">
         <v>74.04000000000001</v>
@@ -5670,13 +5670,13 @@
         <v>45510</v>
       </c>
       <c r="B277" t="n">
-        <v>80.93000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C277" t="n">
-        <v>84.65000000000001</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D277" t="n">
-        <v>69.55</v>
+        <v>63.78</v>
       </c>
       <c r="E277" t="n">
         <v>72.87</v>
@@ -5687,13 +5687,13 @@
         <v>45511</v>
       </c>
       <c r="B278" t="n">
-        <v>81.29000000000001</v>
+        <v>76.78</v>
       </c>
       <c r="C278" t="n">
-        <v>83.22</v>
+        <v>73.7</v>
       </c>
       <c r="D278" t="n">
-        <v>68.89</v>
+        <v>62.72</v>
       </c>
       <c r="E278" t="n">
         <v>74.02</v>
@@ -5704,13 +5704,13 @@
         <v>45512</v>
       </c>
       <c r="B279" t="n">
-        <v>81.45</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="C279" t="n">
-        <v>82.68000000000001</v>
+        <v>73.39</v>
       </c>
       <c r="D279" t="n">
-        <v>69.02</v>
+        <v>63.54</v>
       </c>
       <c r="E279" t="n">
         <v>77.95999999999999</v>
@@ -5721,13 +5721,13 @@
         <v>45513</v>
       </c>
       <c r="B280" t="n">
-        <v>81.34999999999999</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="C280" t="n">
-        <v>84.76000000000001</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="D280" t="n">
-        <v>70.51000000000001</v>
+        <v>66.78</v>
       </c>
       <c r="E280" t="n">
         <v>75.62</v>
@@ -5738,13 +5738,13 @@
         <v>45516</v>
       </c>
       <c r="B281" t="n">
-        <v>81.56999999999999</v>
+        <v>76.31</v>
       </c>
       <c r="C281" t="n">
-        <v>90.36</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D281" t="n">
-        <v>70.36</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E281" t="n">
         <v>79.63</v>
@@ -5755,13 +5755,13 @@
         <v>45517</v>
       </c>
       <c r="B282" t="n">
-        <v>81.22</v>
+        <v>76.72</v>
       </c>
       <c r="C282" t="n">
-        <v>89.69</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="D282" t="n">
-        <v>71.86</v>
+        <v>68</v>
       </c>
       <c r="E282" t="n">
         <v>78.04000000000001</v>
@@ -5772,13 +5772,13 @@
         <v>45518</v>
       </c>
       <c r="B283" t="n">
-        <v>81.02</v>
+        <v>77.14</v>
       </c>
       <c r="C283" t="n">
-        <v>93.65000000000001</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="D283" t="n">
-        <v>72.05</v>
+        <v>68.38</v>
       </c>
       <c r="E283" t="n">
         <v>76.25</v>
@@ -5789,13 +5789,13 @@
         <v>45519</v>
       </c>
       <c r="B284" t="n">
-        <v>80.78</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="C284" t="n">
-        <v>91.93000000000001</v>
+        <v>74.47</v>
       </c>
       <c r="D284" t="n">
-        <v>71.91</v>
+        <v>67.16</v>
       </c>
       <c r="E284" t="n">
         <v>75.06999999999999</v>
@@ -5806,13 +5806,13 @@
         <v>45520</v>
       </c>
       <c r="B285" t="n">
-        <v>80.66</v>
+        <v>77.16</v>
       </c>
       <c r="C285" t="n">
-        <v>86.93000000000001</v>
+        <v>78.14</v>
       </c>
       <c r="D285" t="n">
-        <v>71.17</v>
+        <v>66.02</v>
       </c>
       <c r="E285" t="n">
         <v>76.26000000000001</v>
@@ -5823,13 +5823,13 @@
         <v>45523</v>
       </c>
       <c r="B286" t="n">
-        <v>80.29000000000001</v>
+        <v>77.02</v>
       </c>
       <c r="C286" t="n">
-        <v>88.37</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="D286" t="n">
-        <v>71.53</v>
+        <v>66.5</v>
       </c>
       <c r="E286" t="n">
         <v>77.43000000000001</v>
@@ -5840,13 +5840,13 @@
         <v>45524</v>
       </c>
       <c r="B287" t="n">
-        <v>79.78</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="C287" t="n">
-        <v>89.36</v>
+        <v>81.59</v>
       </c>
       <c r="D287" t="n">
-        <v>71.90000000000001</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="E287" t="n">
         <v>75.79000000000001</v>
@@ -5857,13 +5857,13 @@
         <v>45525</v>
       </c>
       <c r="B288" t="n">
-        <v>79.52</v>
+        <v>76.68000000000001</v>
       </c>
       <c r="C288" t="n">
-        <v>87.84</v>
+        <v>74.34</v>
       </c>
       <c r="D288" t="n">
-        <v>71.2</v>
+        <v>65.39</v>
       </c>
       <c r="E288" t="n">
         <v>76</v>
@@ -5874,13 +5874,13 @@
         <v>45526</v>
       </c>
       <c r="B289" t="n">
-        <v>79.18000000000001</v>
+        <v>76.36</v>
       </c>
       <c r="C289" t="n">
-        <v>86.51000000000001</v>
+        <v>79.48</v>
       </c>
       <c r="D289" t="n">
-        <v>70.73</v>
+        <v>64.63</v>
       </c>
       <c r="E289" t="n">
         <v>77.3</v>
@@ -5891,13 +5891,13 @@
         <v>45527</v>
       </c>
       <c r="B290" t="n">
-        <v>78.59999999999999</v>
+        <v>76.23</v>
       </c>
       <c r="C290" t="n">
-        <v>90.62</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="D290" t="n">
-        <v>71.28</v>
+        <v>66.64</v>
       </c>
       <c r="E290" t="n">
         <v>77.36</v>
@@ -5908,13 +5908,13 @@
         <v>45530</v>
       </c>
       <c r="B291" t="n">
-        <v>77.77</v>
+        <v>76.36</v>
       </c>
       <c r="C291" t="n">
-        <v>90.79000000000001</v>
+        <v>80</v>
       </c>
       <c r="D291" t="n">
-        <v>72.37</v>
+        <v>68.73</v>
       </c>
       <c r="E291" t="n">
         <v>75.69</v>
@@ -5925,13 +5925,13 @@
         <v>45531</v>
       </c>
       <c r="B292" t="n">
-        <v>77.51000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C292" t="n">
-        <v>89.98</v>
+        <v>76.41</v>
       </c>
       <c r="D292" t="n">
-        <v>71.58</v>
+        <v>66.81</v>
       </c>
       <c r="E292" t="n">
         <v>77.51000000000001</v>
@@ -5942,13 +5942,13 @@
         <v>45532</v>
       </c>
       <c r="B293" t="n">
-        <v>76.39</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="C293" t="n">
-        <v>85.89</v>
+        <v>80.12</v>
       </c>
       <c r="D293" t="n">
-        <v>73.12</v>
+        <v>69.3</v>
       </c>
       <c r="E293" t="n">
         <v>81.84</v>
@@ -5959,13 +5959,13 @@
         <v>45533</v>
       </c>
       <c r="B294" t="n">
-        <v>75.20999999999999</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C294" t="n">
-        <v>90.41</v>
+        <v>81.59</v>
       </c>
       <c r="D294" t="n">
-        <v>74.45999999999999</v>
+        <v>71.22</v>
       </c>
       <c r="E294" t="n">
         <v>83.7</v>
@@ -5976,13 +5976,13 @@
         <v>45534</v>
       </c>
       <c r="B295" t="n">
-        <v>73.95</v>
+        <v>77.86</v>
       </c>
       <c r="C295" t="n">
-        <v>85.88</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D295" t="n">
-        <v>75.72</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="E295" t="n">
         <v>82.3</v>
@@ -5993,13 +5993,13 @@
         <v>45537</v>
       </c>
       <c r="B296" t="n">
-        <v>73.20999999999999</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="C296" t="n">
-        <v>88.27</v>
+        <v>80.98</v>
       </c>
       <c r="D296" t="n">
-        <v>75.65000000000001</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="E296" t="n">
         <v>82.98999999999999</v>
@@ -6010,13 +6010,13 @@
         <v>45538</v>
       </c>
       <c r="B297" t="n">
-        <v>72.06999999999999</v>
+        <v>79.08</v>
       </c>
       <c r="C297" t="n">
-        <v>85.51000000000001</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="D297" t="n">
-        <v>76.40000000000001</v>
+        <v>73.25</v>
       </c>
       <c r="E297" t="n">
         <v>76.95</v>
@@ -6027,13 +6027,13 @@
         <v>45539</v>
       </c>
       <c r="B298" t="n">
-        <v>72.17</v>
+        <v>79.11</v>
       </c>
       <c r="C298" t="n">
-        <v>91.64</v>
+        <v>76.45</v>
       </c>
       <c r="D298" t="n">
-        <v>74.63</v>
+        <v>70.05</v>
       </c>
       <c r="E298" t="n">
         <v>80.31999999999999</v>
@@ -6044,13 +6044,13 @@
         <v>45540</v>
       </c>
       <c r="B299" t="n">
-        <v>71.34999999999999</v>
+        <v>79.09</v>
       </c>
       <c r="C299" t="n">
-        <v>84.41</v>
+        <v>71.33</v>
       </c>
       <c r="D299" t="n">
-        <v>75.33</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="E299" t="n">
         <v>78.56</v>
@@ -6061,13 +6061,13 @@
         <v>45541</v>
       </c>
       <c r="B300" t="n">
-        <v>71.33</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="C300" t="n">
-        <v>84.66</v>
+        <v>71.45</v>
       </c>
       <c r="D300" t="n">
-        <v>74.68000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E300" t="n">
         <v>75.56</v>
@@ -6078,13 +6078,13 @@
         <v>45544</v>
       </c>
       <c r="B301" t="n">
-        <v>71.79000000000001</v>
+        <v>78.56</v>
       </c>
       <c r="C301" t="n">
-        <v>81.15000000000001</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="D301" t="n">
-        <v>73.22</v>
+        <v>67.06</v>
       </c>
       <c r="E301" t="n">
         <v>71.36</v>
@@ -6095,13 +6095,13 @@
         <v>45545</v>
       </c>
       <c r="B302" t="n">
-        <v>72.28</v>
+        <v>77.83</v>
       </c>
       <c r="C302" t="n">
-        <v>84.86</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="D302" t="n">
-        <v>71.94</v>
+        <v>65.28</v>
       </c>
       <c r="E302" t="n">
         <v>71.93000000000001</v>
@@ -6112,13 +6112,13 @@
         <v>45546</v>
       </c>
       <c r="B303" t="n">
-        <v>72.59999999999999</v>
+        <v>77.11</v>
       </c>
       <c r="C303" t="n">
-        <v>81.38</v>
+        <v>71.7</v>
       </c>
       <c r="D303" t="n">
-        <v>71.36</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="E303" t="n">
         <v>76.52</v>
@@ -6129,13 +6129,13 @@
         <v>45547</v>
       </c>
       <c r="B304" t="n">
-        <v>72.47</v>
+        <v>76.83</v>
       </c>
       <c r="C304" t="n">
-        <v>79.31</v>
+        <v>69.75</v>
       </c>
       <c r="D304" t="n">
-        <v>72.14</v>
+        <v>66.67</v>
       </c>
       <c r="E304" t="n">
         <v>74</v>
@@ -6146,13 +6146,13 @@
         <v>45548</v>
       </c>
       <c r="B305" t="n">
-        <v>72.8</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="C305" t="n">
-        <v>78.36</v>
+        <v>71.86</v>
       </c>
       <c r="D305" t="n">
-        <v>71.48</v>
+        <v>65.53</v>
       </c>
       <c r="E305" t="n">
         <v>74.84999999999999</v>
@@ -6163,13 +6163,13 @@
         <v>45551</v>
       </c>
       <c r="B306" t="n">
-        <v>72.86</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C306" t="n">
-        <v>79.8</v>
+        <v>70.66</v>
       </c>
       <c r="D306" t="n">
-        <v>71.68000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="E306" t="n">
         <v>74.55</v>
@@ -6180,13 +6180,13 @@
         <v>45552</v>
       </c>
       <c r="B307" t="n">
-        <v>73.12</v>
+        <v>76.2</v>
       </c>
       <c r="C307" t="n">
-        <v>81.25</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="D307" t="n">
-        <v>71.43000000000001</v>
+        <v>65.58</v>
       </c>
       <c r="E307" t="n">
         <v>76.81999999999999</v>
@@ -6197,13 +6197,13 @@
         <v>45553</v>
       </c>
       <c r="B308" t="n">
-        <v>72.81999999999999</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C308" t="n">
-        <v>82.92</v>
+        <v>71.2</v>
       </c>
       <c r="D308" t="n">
-        <v>72.51000000000001</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="E308" t="n">
         <v>75.68000000000001</v>
@@ -6214,13 +6214,13 @@
         <v>45554</v>
       </c>
       <c r="B309" t="n">
-        <v>72.73999999999999</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C309" t="n">
-        <v>82.97</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="D309" t="n">
-        <v>72.62</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E309" t="n">
         <v>76.18000000000001</v>
@@ -6231,13 +6231,13 @@
         <v>45555</v>
       </c>
       <c r="B310" t="n">
-        <v>72.39</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C310" t="n">
-        <v>82.7</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="D310" t="n">
-        <v>73.41</v>
+        <v>68.37</v>
       </c>
       <c r="E310" t="n">
         <v>75.91</v>
@@ -6248,13 +6248,13 @@
         <v>45558</v>
       </c>
       <c r="B311" t="n">
-        <v>72.27</v>
+        <v>77.48</v>
       </c>
       <c r="C311" t="n">
-        <v>83.91</v>
+        <v>74.41</v>
       </c>
       <c r="D311" t="n">
-        <v>73.59</v>
+        <v>68.86</v>
       </c>
       <c r="E311" t="n">
         <v>74.98999999999999</v>
@@ -6265,13 +6265,13 @@
         <v>45559</v>
       </c>
       <c r="B312" t="n">
-        <v>72.31999999999999</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="C312" t="n">
-        <v>84.31999999999999</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="D312" t="n">
-        <v>73.2</v>
+        <v>67.52</v>
       </c>
       <c r="E312" t="n">
         <v>74.73</v>
@@ -6282,13 +6282,13 @@
         <v>45560</v>
       </c>
       <c r="B313" t="n">
-        <v>72.73999999999999</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="C313" t="n">
-        <v>84.79000000000001</v>
+        <v>75.31</v>
       </c>
       <c r="D313" t="n">
-        <v>72.3</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="E313" t="n">
         <v>73.73999999999999</v>
@@ -6299,13 +6299,13 @@
         <v>45561</v>
       </c>
       <c r="B314" t="n">
-        <v>73.43000000000001</v>
+        <v>76.87</v>
       </c>
       <c r="C314" t="n">
-        <v>83.34</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="D314" t="n">
-        <v>71.09999999999999</v>
+        <v>64.95</v>
       </c>
       <c r="E314" t="n">
         <v>75.31999999999999</v>
@@ -6316,13 +6316,13 @@
         <v>45562</v>
       </c>
       <c r="B315" t="n">
-        <v>73.38</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C315" t="n">
-        <v>85.29000000000001</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="D315" t="n">
-        <v>71.92</v>
+        <v>66.61</v>
       </c>
       <c r="E315" t="n">
         <v>76.19</v>
@@ -6333,13 +6333,13 @@
         <v>45565</v>
       </c>
       <c r="B316" t="n">
-        <v>73.02</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C316" t="n">
-        <v>85.5</v>
+        <v>69.38</v>
       </c>
       <c r="D316" t="n">
-        <v>73.09</v>
+        <v>68.55</v>
       </c>
       <c r="E316" t="n">
         <v>75.55</v>
@@ -6350,13 +6350,13 @@
         <v>45566</v>
       </c>
       <c r="B317" t="n">
-        <v>72.98999999999999</v>
+        <v>76.75</v>
       </c>
       <c r="C317" t="n">
-        <v>85.97</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="D317" t="n">
-        <v>73.5</v>
+        <v>68.33</v>
       </c>
       <c r="E317" t="n">
         <v>77.81999999999999</v>
@@ -6367,13 +6367,13 @@
         <v>45567</v>
       </c>
       <c r="B318" t="n">
-        <v>72.63</v>
+        <v>77.16</v>
       </c>
       <c r="C318" t="n">
-        <v>84.94</v>
+        <v>68.8</v>
       </c>
       <c r="D318" t="n">
-        <v>74.37</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="E318" t="n">
         <v>78.31999999999999</v>
@@ -6384,13 +6384,13 @@
         <v>45568</v>
       </c>
       <c r="B319" t="n">
-        <v>72.03</v>
+        <v>77.64</v>
       </c>
       <c r="C319" t="n">
-        <v>87.17</v>
+        <v>71.58</v>
       </c>
       <c r="D319" t="n">
-        <v>75.52</v>
+        <v>70.38</v>
       </c>
       <c r="E319" t="n">
         <v>78.03</v>
@@ -6401,13 +6401,13 @@
         <v>45569</v>
       </c>
       <c r="B320" t="n">
-        <v>71.66</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C320" t="n">
-        <v>86.27</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D320" t="n">
-        <v>75.75</v>
+        <v>70.92</v>
       </c>
       <c r="E320" t="n">
         <v>79.89</v>
@@ -6418,13 +6418,13 @@
         <v>45572</v>
       </c>
       <c r="B321" t="n">
-        <v>70.95</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C321" t="n">
-        <v>87.26000000000001</v>
+        <v>77.89</v>
       </c>
       <c r="D321" t="n">
-        <v>76.69</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E321" t="n">
         <v>82.2</v>
@@ -6435,13 +6435,13 @@
         <v>45573</v>
       </c>
       <c r="B322" t="n">
-        <v>70.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C322" t="n">
-        <v>87.55</v>
+        <v>72.31</v>
       </c>
       <c r="D322" t="n">
-        <v>77.48</v>
+        <v>73</v>
       </c>
       <c r="E322" t="n">
         <v>90.42</v>
@@ -6452,13 +6452,13 @@
         <v>45574</v>
       </c>
       <c r="B323" t="n">
-        <v>69.81999999999999</v>
+        <v>79.87</v>
       </c>
       <c r="C323" t="n">
-        <v>85.27</v>
+        <v>74.12</v>
       </c>
       <c r="D323" t="n">
-        <v>79.36</v>
+        <v>74.69</v>
       </c>
       <c r="E323" t="n">
         <v>98.09999999999999</v>
@@ -6469,13 +6469,13 @@
         <v>45575</v>
       </c>
       <c r="B324" t="n">
-        <v>69.06999999999999</v>
+        <v>80.92</v>
       </c>
       <c r="C324" t="n">
-        <v>84.03</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="D324" t="n">
-        <v>81.05</v>
+        <v>76.44</v>
       </c>
       <c r="E324" t="n">
         <v>89.02</v>
@@ -6486,13 +6486,13 @@
         <v>45576</v>
       </c>
       <c r="B325" t="n">
-        <v>69.08</v>
+        <v>81.62</v>
       </c>
       <c r="C325" t="n">
-        <v>81.76000000000001</v>
+        <v>71.86</v>
       </c>
       <c r="D325" t="n">
-        <v>79.56</v>
+        <v>75.22</v>
       </c>
       <c r="E325" t="n">
         <v>88.8</v>
@@ -6503,13 +6503,13 @@
         <v>45579</v>
       </c>
       <c r="B326" t="n">
-        <v>69</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="C326" t="n">
-        <v>80.34999999999999</v>
+        <v>69.86</v>
       </c>
       <c r="D326" t="n">
-        <v>79.64</v>
+        <v>74.62</v>
       </c>
       <c r="E326" t="n">
         <v>92.2</v>
@@ -6520,13 +6520,13 @@
         <v>45580</v>
       </c>
       <c r="B327" t="n">
-        <v>68.72</v>
+        <v>82.63</v>
       </c>
       <c r="C327" t="n">
-        <v>80.93000000000001</v>
+        <v>72.63</v>
       </c>
       <c r="D327" t="n">
-        <v>80.52</v>
+        <v>76.33</v>
       </c>
       <c r="E327" t="n">
         <v>93</v>
@@ -6537,13 +6537,13 @@
         <v>45581</v>
       </c>
       <c r="B328" t="n">
-        <v>68.55</v>
+        <v>83.23</v>
       </c>
       <c r="C328" t="n">
-        <v>81.81</v>
+        <v>72.03</v>
       </c>
       <c r="D328" t="n">
-        <v>80.95999999999999</v>
+        <v>77.09</v>
       </c>
       <c r="E328" t="n">
         <v>89.89</v>
@@ -6554,13 +6554,13 @@
         <v>45582</v>
       </c>
       <c r="B329" t="n">
-        <v>68.68000000000001</v>
+        <v>83.63</v>
       </c>
       <c r="C329" t="n">
-        <v>76.72</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D329" t="n">
-        <v>80.45999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="E329" t="n">
         <v>91.40000000000001</v>
@@ -6571,13 +6571,13 @@
         <v>45583</v>
       </c>
       <c r="B330" t="n">
-        <v>68.77</v>
+        <v>83.97</v>
       </c>
       <c r="C330" t="n">
-        <v>75.43000000000001</v>
+        <v>78.02</v>
       </c>
       <c r="D330" t="n">
-        <v>80.61</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="E330" t="n">
         <v>90</v>
@@ -6588,13 +6588,13 @@
         <v>45586</v>
       </c>
       <c r="B331" t="n">
-        <v>69.23</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C331" t="n">
-        <v>75.97</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D331" t="n">
-        <v>79.67</v>
+        <v>75.19</v>
       </c>
       <c r="E331" t="n">
         <v>90.81999999999999</v>
@@ -6605,13 +6605,13 @@
         <v>45587</v>
       </c>
       <c r="B332" t="n">
-        <v>69.47</v>
+        <v>84.02</v>
       </c>
       <c r="C332" t="n">
-        <v>79.45999999999999</v>
+        <v>78.67</v>
       </c>
       <c r="D332" t="n">
-        <v>79.27</v>
+        <v>75.36</v>
       </c>
       <c r="E332" t="n">
         <v>90.38</v>
@@ -6622,13 +6622,13 @@
         <v>45588</v>
       </c>
       <c r="B333" t="n">
-        <v>69.58</v>
+        <v>84.05</v>
       </c>
       <c r="C333" t="n">
-        <v>79.48999999999999</v>
+        <v>78.22</v>
       </c>
       <c r="D333" t="n">
-        <v>78.8</v>
+        <v>75.55</v>
       </c>
       <c r="E333" t="n">
         <v>91.42</v>
@@ -6639,13 +6639,13 @@
         <v>45589</v>
       </c>
       <c r="B334" t="n">
-        <v>69.44</v>
+        <v>84.27</v>
       </c>
       <c r="C334" t="n">
-        <v>78.47</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="D334" t="n">
-        <v>78.92</v>
+        <v>75.95</v>
       </c>
       <c r="E334" t="n">
         <v>100.56</v>
@@ -6656,13 +6656,13 @@
         <v>45590</v>
       </c>
       <c r="B335" t="n">
-        <v>68.86</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C335" t="n">
-        <v>77.76000000000001</v>
+        <v>83.63</v>
       </c>
       <c r="D335" t="n">
-        <v>80.88</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="E335" t="n">
         <v>97.48999999999999</v>
@@ -6673,13 +6673,13 @@
         <v>45593</v>
       </c>
       <c r="B336" t="n">
-        <v>68.86</v>
+        <v>85.63</v>
       </c>
       <c r="C336" t="n">
-        <v>80.73</v>
+        <v>84.33</v>
       </c>
       <c r="D336" t="n">
-        <v>80.54000000000001</v>
+        <v>78.61</v>
       </c>
       <c r="E336" t="n">
         <v>96.38</v>
@@ -6690,13 +6690,13 @@
         <v>45594</v>
       </c>
       <c r="B337" t="n">
-        <v>68.94</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="C337" t="n">
-        <v>78.26000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="D337" t="n">
-        <v>80.14</v>
+        <v>78.09</v>
       </c>
       <c r="E337" t="n">
         <v>102.47</v>
@@ -6707,13 +6707,13 @@
         <v>45595</v>
       </c>
       <c r="B338" t="n">
-        <v>68.73</v>
+        <v>87.12</v>
       </c>
       <c r="C338" t="n">
-        <v>82.40000000000001</v>
+        <v>88.64</v>
       </c>
       <c r="D338" t="n">
-        <v>80.84999999999999</v>
+        <v>80.73</v>
       </c>
       <c r="E338" t="n">
         <v>109.2</v>
@@ -6724,13 +6724,13 @@
         <v>45596</v>
       </c>
       <c r="B339" t="n">
-        <v>68.47</v>
+        <v>88.25</v>
       </c>
       <c r="C339" t="n">
-        <v>86.43000000000001</v>
+        <v>88.77</v>
       </c>
       <c r="D339" t="n">
-        <v>82.08</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E339" t="n">
         <v>109.46</v>
@@ -6741,13 +6741,13 @@
         <v>45597</v>
       </c>
       <c r="B340" t="n">
-        <v>68.45999999999999</v>
+        <v>89.34</v>
       </c>
       <c r="C340" t="n">
-        <v>89.33</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D340" t="n">
-        <v>81.95</v>
+        <v>84.02</v>
       </c>
       <c r="E340" t="n">
         <v>116.7</v>
@@ -6758,13 +6758,13 @@
         <v>45600</v>
       </c>
       <c r="B341" t="n">
-        <v>68.42</v>
+        <v>90.58</v>
       </c>
       <c r="C341" t="n">
-        <v>83.04000000000001</v>
+        <v>88.03</v>
       </c>
       <c r="D341" t="n">
-        <v>82.13</v>
+        <v>85.56</v>
       </c>
       <c r="E341" t="n">
         <v>113.93</v>
@@ -6775,13 +6775,13 @@
         <v>45601</v>
       </c>
       <c r="B342" t="n">
-        <v>68.76000000000001</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="C342" t="n">
-        <v>88.77</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="D342" t="n">
-        <v>81.20999999999999</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="E342" t="n">
         <v>125.32</v>
@@ -6792,13 +6792,13 @@
         <v>45602</v>
       </c>
       <c r="B343" t="n">
-        <v>68.77</v>
+        <v>92.84</v>
       </c>
       <c r="C343" t="n">
-        <v>84.92</v>
+        <v>89.63</v>
       </c>
       <c r="D343" t="n">
-        <v>81.11</v>
+        <v>88.27</v>
       </c>
       <c r="E343" t="n">
         <v>137.85</v>
@@ -6809,13 +6809,13 @@
         <v>45603</v>
       </c>
       <c r="B344" t="n">
-        <v>68.83</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="C344" t="n">
-        <v>87.62</v>
+        <v>92.55</v>
       </c>
       <c r="D344" t="n">
-        <v>80.27</v>
+        <v>90.84</v>
       </c>
       <c r="E344" t="n">
         <v>134.2</v>
@@ -6826,13 +6826,13 @@
         <v>45604</v>
       </c>
       <c r="B345" t="n">
-        <v>69.08</v>
+        <v>95.41</v>
       </c>
       <c r="C345" t="n">
-        <v>84.59999999999999</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="D345" t="n">
-        <v>78.13</v>
+        <v>91.7</v>
       </c>
       <c r="E345" t="n">
         <v>135.87</v>
@@ -6843,13 +6843,13 @@
         <v>45607</v>
       </c>
       <c r="B346" t="n">
-        <v>69.15000000000001</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="C346" t="n">
-        <v>87.41</v>
+        <v>92.75</v>
       </c>
       <c r="D346" t="n">
-        <v>76.59</v>
+        <v>93.04000000000001</v>
       </c>
       <c r="E346" t="n">
         <v>134.22</v>
@@ -6860,13 +6860,13 @@
         <v>45608</v>
       </c>
       <c r="B347" t="n">
-        <v>69.39</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C347" t="n">
-        <v>86.17</v>
+        <v>89.12</v>
       </c>
       <c r="D347" t="n">
-        <v>74.97</v>
+        <v>93.69</v>
       </c>
       <c r="E347" t="n">
         <v>140.3</v>
@@ -6877,13 +6877,13 @@
         <v>45609</v>
       </c>
       <c r="B348" t="n">
-        <v>69.48</v>
+        <v>98.22</v>
       </c>
       <c r="C348" t="n">
-        <v>89.51000000000001</v>
+        <v>90.86</v>
       </c>
       <c r="D348" t="n">
-        <v>72.63</v>
+        <v>95.36</v>
       </c>
       <c r="E348" t="n">
         <v>134.57</v>
@@ -6894,13 +6894,13 @@
         <v>45610</v>
       </c>
       <c r="B349" t="n">
-        <v>69.81999999999999</v>
+        <v>98.89</v>
       </c>
       <c r="C349" t="n">
-        <v>90.48</v>
+        <v>88.59</v>
       </c>
       <c r="D349" t="n">
-        <v>70.41</v>
+        <v>95.91</v>
       </c>
       <c r="E349" t="n">
         <v>144.43</v>
@@ -6911,13 +6911,13 @@
         <v>45611</v>
       </c>
       <c r="B350" t="n">
-        <v>69.87</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="C350" t="n">
-        <v>96.34999999999999</v>
+        <v>91.22</v>
       </c>
       <c r="D350" t="n">
-        <v>68.65000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="E350" t="n">
         <v>140.31</v>
@@ -6928,13 +6928,13 @@
         <v>45614</v>
       </c>
       <c r="B351" t="n">
-        <v>70.11</v>
+        <v>100.29</v>
       </c>
       <c r="C351" t="n">
-        <v>100.78</v>
+        <v>88.05</v>
       </c>
       <c r="D351" t="n">
-        <v>66.77</v>
+        <v>98.61</v>
       </c>
       <c r="E351" t="n">
         <v>131.5</v>
@@ -6945,13 +6945,13 @@
         <v>45615</v>
       </c>
       <c r="B352" t="n">
-        <v>70.8</v>
+        <v>100.38</v>
       </c>
       <c r="C352" t="n">
-        <v>105.17</v>
+        <v>91.41</v>
       </c>
       <c r="D352" t="n">
-        <v>66.34</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="E352" t="n">
         <v>124.75</v>
@@ -6962,13 +6962,13 @@
         <v>45616</v>
       </c>
       <c r="B353" t="n">
-        <v>71.45</v>
+        <v>100.07</v>
       </c>
       <c r="C353" t="n">
-        <v>110.91</v>
+        <v>90.17</v>
       </c>
       <c r="D353" t="n">
-        <v>65.04000000000001</v>
+        <v>94.23</v>
       </c>
       <c r="E353" t="n">
         <v>129.39</v>
@@ -6979,13 +6979,13 @@
         <v>45617</v>
       </c>
       <c r="B354" t="n">
-        <v>71.73999999999999</v>
+        <v>99.81</v>
       </c>
       <c r="C354" t="n">
-        <v>115.14</v>
+        <v>92.12</v>
       </c>
       <c r="D354" t="n">
-        <v>63.6</v>
+        <v>94.63</v>
       </c>
       <c r="E354" t="n">
         <v>129.72</v>
@@ -6996,13 +6996,13 @@
         <v>45618</v>
       </c>
       <c r="B355" t="n">
-        <v>72.06</v>
+        <v>99.55</v>
       </c>
       <c r="C355" t="n">
-        <v>103.7</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="D355" t="n">
-        <v>63.25</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E355" t="n">
         <v>129.15</v>
@@ -7013,13 +7013,13 @@
         <v>45621</v>
       </c>
       <c r="B356" t="n">
-        <v>72.38</v>
+        <v>99.25</v>
       </c>
       <c r="C356" t="n">
-        <v>103.52</v>
+        <v>91.63</v>
       </c>
       <c r="D356" t="n">
-        <v>62.79</v>
+        <v>94.02</v>
       </c>
       <c r="E356" t="n">
         <v>123.99</v>
@@ -7030,13 +7030,13 @@
         <v>45622</v>
       </c>
       <c r="B357" t="n">
-        <v>72.81999999999999</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="C357" t="n">
-        <v>102.54</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="D357" t="n">
-        <v>62.34</v>
+        <v>92.02</v>
       </c>
       <c r="E357" t="n">
         <v>121.35</v>
@@ -7047,13 +7047,13 @@
         <v>45623</v>
       </c>
       <c r="B358" t="n">
-        <v>73.34999999999999</v>
+        <v>98.34</v>
       </c>
       <c r="C358" t="n">
-        <v>108.48</v>
+        <v>95.42</v>
       </c>
       <c r="D358" t="n">
-        <v>61.58</v>
+        <v>90.31</v>
       </c>
       <c r="E358" t="n">
         <v>120.61</v>
@@ -7064,13 +7064,13 @@
         <v>45624</v>
       </c>
       <c r="B359" t="n">
-        <v>73.88</v>
+        <v>97.81</v>
       </c>
       <c r="C359" t="n">
-        <v>111.68</v>
+        <v>95.64</v>
       </c>
       <c r="D359" t="n">
-        <v>61.75</v>
+        <v>89.81</v>
       </c>
       <c r="E359" t="n">
         <v>123.89</v>
@@ -7081,13 +7081,13 @@
         <v>45625</v>
       </c>
       <c r="B360" t="n">
-        <v>74.48</v>
+        <v>97.43000000000001</v>
       </c>
       <c r="C360" t="n">
-        <v>112.14</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="D360" t="n">
-        <v>61.02</v>
+        <v>90.12</v>
       </c>
       <c r="E360" t="n">
         <v>119.21</v>
@@ -7098,13 +7098,13 @@
         <v>45628</v>
       </c>
       <c r="B361" t="n">
-        <v>75.29000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C361" t="n">
-        <v>104.16</v>
+        <v>98.23</v>
       </c>
       <c r="D361" t="n">
-        <v>60.88</v>
+        <v>88.48</v>
       </c>
       <c r="E361" t="n">
         <v>121.59</v>
@@ -7115,13 +7115,13 @@
         <v>45629</v>
       </c>
       <c r="B362" t="n">
-        <v>75.86</v>
+        <v>96.67</v>
       </c>
       <c r="C362" t="n">
-        <v>103.99</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="D362" t="n">
-        <v>60.92</v>
+        <v>88.36</v>
       </c>
       <c r="E362" t="n">
         <v>133.75</v>
@@ -7132,13 +7132,13 @@
         <v>45630</v>
       </c>
       <c r="B363" t="n">
-        <v>75.61</v>
+        <v>96.87</v>
       </c>
       <c r="C363" t="n">
-        <v>114.93</v>
+        <v>100.28</v>
       </c>
       <c r="D363" t="n">
-        <v>60.37</v>
+        <v>92.08</v>
       </c>
       <c r="E363" t="n">
         <v>135.7</v>
@@ -7149,13 +7149,13 @@
         <v>45631</v>
       </c>
       <c r="B364" t="n">
-        <v>75.8</v>
+        <v>97.33</v>
       </c>
       <c r="C364" t="n">
-        <v>125.85</v>
+        <v>101</v>
       </c>
       <c r="D364" t="n">
-        <v>58.71</v>
+        <v>92.66</v>
       </c>
       <c r="E364" t="n">
         <v>136.8</v>
@@ -7166,13 +7166,13 @@
         <v>45632</v>
       </c>
       <c r="B365" t="n">
-        <v>75.95999999999999</v>
+        <v>97.88</v>
       </c>
       <c r="C365" t="n">
-        <v>119.68</v>
+        <v>104.52</v>
       </c>
       <c r="D365" t="n">
-        <v>57.36</v>
+        <v>92.78</v>
       </c>
       <c r="E365" t="n">
         <v>139.98</v>
@@ -7183,13 +7183,13 @@
         <v>45635</v>
       </c>
       <c r="B366" t="n">
-        <v>76.01000000000001</v>
+        <v>98.48</v>
       </c>
       <c r="C366" t="n">
-        <v>124.23</v>
+        <v>105.8</v>
       </c>
       <c r="D366" t="n">
-        <v>56.21</v>
+        <v>93.44</v>
       </c>
       <c r="E366" t="n">
         <v>138.39</v>
@@ -7200,13 +7200,13 @@
         <v>45636</v>
       </c>
       <c r="B367" t="n">
-        <v>76.12</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="C367" t="n">
-        <v>134.25</v>
+        <v>110.32</v>
       </c>
       <c r="D367" t="n">
-        <v>55.21</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="E367" t="n">
         <v>144.75</v>
@@ -7217,13 +7217,13 @@
         <v>45637</v>
       </c>
       <c r="B368" t="n">
-        <v>76.08</v>
+        <v>99.56</v>
       </c>
       <c r="C368" t="n">
-        <v>137.33</v>
+        <v>111.07</v>
       </c>
       <c r="D368" t="n">
-        <v>53.9</v>
+        <v>94.41</v>
       </c>
       <c r="E368" t="n">
         <v>134.5</v>
@@ -7234,13 +7234,13 @@
         <v>45638</v>
       </c>
       <c r="B369" t="n">
-        <v>76.66</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C369" t="n">
-        <v>139.24</v>
+        <v>109.52</v>
       </c>
       <c r="D369" t="n">
-        <v>53.1</v>
+        <v>92.70999999999999</v>
       </c>
       <c r="E369" t="n">
         <v>133.72</v>
@@ -7251,13 +7251,13 @@
         <v>45639</v>
       </c>
       <c r="B370" t="n">
-        <v>77.14</v>
+        <v>99.87</v>
       </c>
       <c r="C370" t="n">
-        <v>141.18</v>
+        <v>109.44</v>
       </c>
       <c r="D370" t="n">
-        <v>52.55</v>
+        <v>92.45</v>
       </c>
       <c r="E370" t="n">
         <v>136.91</v>
@@ -7268,13 +7268,13 @@
         <v>45642</v>
       </c>
       <c r="B371" t="n">
-        <v>77.42</v>
+        <v>99.8</v>
       </c>
       <c r="C371" t="n">
-        <v>143.25</v>
+        <v>109.17</v>
       </c>
       <c r="D371" t="n">
-        <v>52.67</v>
+        <v>92.44</v>
       </c>
       <c r="E371" t="n">
         <v>130.16</v>
@@ -7285,13 +7285,13 @@
         <v>45643</v>
       </c>
       <c r="B372" t="n">
-        <v>77.87</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="C372" t="n">
-        <v>145.71</v>
+        <v>112.13</v>
       </c>
       <c r="D372" t="n">
-        <v>52.73</v>
+        <v>90.61</v>
       </c>
       <c r="E372" t="n">
         <v>130.7</v>
@@ -7302,13 +7302,13 @@
         <v>45644</v>
       </c>
       <c r="B373" t="n">
-        <v>78.14</v>
+        <v>99.03</v>
       </c>
       <c r="C373" t="n">
-        <v>140.28</v>
+        <v>114.79</v>
       </c>
       <c r="D373" t="n">
-        <v>52.23</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="E373" t="n">
         <v>130.21</v>
@@ -7319,13 +7319,13 @@
         <v>45645</v>
       </c>
       <c r="B374" t="n">
-        <v>78.38</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="C374" t="n">
-        <v>138.59</v>
+        <v>115.01</v>
       </c>
       <c r="D374" t="n">
-        <v>52.29</v>
+        <v>89.06</v>
       </c>
       <c r="E374" t="n">
         <v>129.76</v>
@@ -7336,13 +7336,13 @@
         <v>45646</v>
       </c>
       <c r="B375" t="n">
-        <v>78.58</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="C375" t="n">
-        <v>137.42</v>
+        <v>114.01</v>
       </c>
       <c r="D375" t="n">
-        <v>52.68</v>
+        <v>88.52</v>
       </c>
       <c r="E375" t="n">
         <v>130.8</v>
@@ -7353,13 +7353,13 @@
         <v>45649</v>
       </c>
       <c r="B376" t="n">
-        <v>78.76000000000001</v>
+        <v>97.64</v>
       </c>
       <c r="C376" t="n">
-        <v>136.85</v>
+        <v>115.5</v>
       </c>
       <c r="D376" t="n">
-        <v>52.73</v>
+        <v>88.47</v>
       </c>
       <c r="E376" t="n">
         <v>131.1</v>
@@ -7370,13 +7370,13 @@
         <v>45650</v>
       </c>
       <c r="B377" t="n">
-        <v>78.89</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C377" t="n">
-        <v>129</v>
+        <v>116.09</v>
       </c>
       <c r="D377" t="n">
-        <v>52.66</v>
+        <v>88.59</v>
       </c>
       <c r="E377" t="n">
         <v>130.68</v>
@@ -7387,13 +7387,13 @@
         <v>45651</v>
       </c>
       <c r="B378" t="n">
-        <v>79.08</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C378" t="n">
-        <v>132.1</v>
+        <v>116.88</v>
       </c>
       <c r="D378" t="n">
-        <v>52.54</v>
+        <v>87.73999999999999</v>
       </c>
       <c r="E378" t="n">
         <v>131.34</v>
@@ -7404,13 +7404,13 @@
         <v>45652</v>
       </c>
       <c r="B379" t="n">
-        <v>79.06</v>
+        <v>96.93000000000001</v>
       </c>
       <c r="C379" t="n">
-        <v>136.01</v>
+        <v>116.4</v>
       </c>
       <c r="D379" t="n">
-        <v>53.08</v>
+        <v>88.64</v>
       </c>
       <c r="E379" t="n">
         <v>129.28</v>
@@ -7421,13 +7421,13 @@
         <v>45653</v>
       </c>
       <c r="B380" t="n">
-        <v>79.3</v>
+        <v>96.7</v>
       </c>
       <c r="C380" t="n">
-        <v>136.82</v>
+        <v>119.1</v>
       </c>
       <c r="D380" t="n">
-        <v>53.23</v>
+        <v>87.63</v>
       </c>
       <c r="E380" t="n">
         <v>136</v>
@@ -7438,13 +7438,13 @@
         <v>45656</v>
       </c>
       <c r="B381" t="n">
-        <v>78.81</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>127.99</v>
+        <v>116.19</v>
       </c>
       <c r="D381" t="n">
-        <v>52.38</v>
+        <v>91.52</v>
       </c>
       <c r="E381" t="n">
         <v>135.08</v>
@@ -7455,13 +7455,13 @@
         <v>45657</v>
       </c>
       <c r="B382" t="n">
-        <v>78.65000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C382" t="n">
-        <v>131.05</v>
+        <v>119.69</v>
       </c>
       <c r="D382" t="n">
-        <v>51.83</v>
+        <v>92.23</v>
       </c>
       <c r="E382" t="n">
         <v>134.8</v>
@@ -7472,13 +7472,13 @@
         <v>45658</v>
       </c>
       <c r="B383" t="n">
-        <v>78.52</v>
+        <v>97.63</v>
       </c>
       <c r="C383" t="n">
-        <v>138.36</v>
+        <v>121.82</v>
       </c>
       <c r="D383" t="n">
-        <v>51.54</v>
+        <v>91.73</v>
       </c>
       <c r="E383" t="n">
         <v>133.39</v>
@@ -7489,13 +7489,13 @@
         <v>45659</v>
       </c>
       <c r="B384" t="n">
-        <v>78.59</v>
+        <v>97.88</v>
       </c>
       <c r="C384" t="n">
-        <v>142.76</v>
+        <v>124.18</v>
       </c>
       <c r="D384" t="n">
-        <v>51.22</v>
+        <v>90.94</v>
       </c>
       <c r="E384" t="n">
         <v>128.54</v>
@@ -7506,13 +7506,13 @@
         <v>45660</v>
       </c>
       <c r="B385" t="n">
-        <v>79.12</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="C385" t="n">
-        <v>144.93</v>
+        <v>121.29</v>
       </c>
       <c r="D385" t="n">
-        <v>51.48</v>
+        <v>87.83</v>
       </c>
       <c r="E385" t="n">
         <v>124.98</v>
@@ -7523,13 +7523,13 @@
         <v>45663</v>
       </c>
       <c r="B386" t="n">
-        <v>79.54000000000001</v>
+        <v>97.45</v>
       </c>
       <c r="C386" t="n">
-        <v>143.74</v>
+        <v>123.19</v>
       </c>
       <c r="D386" t="n">
-        <v>51.65</v>
+        <v>85.97</v>
       </c>
       <c r="E386" t="n">
         <v>124</v>
@@ -7540,13 +7540,13 @@
         <v>45664</v>
       </c>
       <c r="B387" t="n">
-        <v>80</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="C387" t="n">
-        <v>137.48</v>
+        <v>124.49</v>
       </c>
       <c r="D387" t="n">
-        <v>51.58</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="E387" t="n">
         <v>129.26</v>
@@ -7557,13 +7557,13 @@
         <v>45665</v>
       </c>
       <c r="B388" t="n">
-        <v>80.06</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="C388" t="n">
-        <v>137.05</v>
+        <v>122.23</v>
       </c>
       <c r="D388" t="n">
-        <v>51.54</v>
+        <v>86.72</v>
       </c>
       <c r="E388" t="n">
         <v>127.78</v>
@@ -7574,13 +7574,13 @@
         <v>45666</v>
       </c>
       <c r="B389" t="n">
-        <v>80.31</v>
+        <v>96.66</v>
       </c>
       <c r="C389" t="n">
-        <v>136.66</v>
+        <v>120.93</v>
       </c>
       <c r="D389" t="n">
-        <v>51.26</v>
+        <v>86.13</v>
       </c>
       <c r="E389" t="n">
         <v>128.96</v>
@@ -7591,13 +7591,13 @@
         <v>45667</v>
       </c>
       <c r="B390" t="n">
-        <v>80.43000000000001</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="C390" t="n">
-        <v>134.55</v>
+        <v>123.13</v>
       </c>
       <c r="D390" t="n">
-        <v>51.07</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="E390" t="n">
         <v>128.17</v>
@@ -7608,13 +7608,13 @@
         <v>45670</v>
       </c>
       <c r="B391" t="n">
-        <v>80.68000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C391" t="n">
-        <v>130.09</v>
+        <v>125.84</v>
       </c>
       <c r="D391" t="n">
-        <v>50.72</v>
+        <v>85.66</v>
       </c>
       <c r="E391" t="n">
         <v>132</v>
@@ -7625,13 +7625,13 @@
         <v>45671</v>
       </c>
       <c r="B392" t="n">
-        <v>80.44</v>
+        <v>96.66</v>
       </c>
       <c r="C392" t="n">
-        <v>131.34</v>
+        <v>125.4</v>
       </c>
       <c r="D392" t="n">
-        <v>50.3</v>
+        <v>88.14</v>
       </c>
       <c r="E392" t="n">
         <v>138.71</v>
@@ -7642,13 +7642,13 @@
         <v>45672</v>
       </c>
       <c r="B393" t="n">
-        <v>80.06</v>
+        <v>97.08</v>
       </c>
       <c r="C393" t="n">
-        <v>140.2</v>
+        <v>128.97</v>
       </c>
       <c r="D393" t="n">
-        <v>49.78</v>
+        <v>89.98</v>
       </c>
       <c r="E393" t="n">
         <v>137.8</v>
@@ -7659,13 +7659,13 @@
         <v>45673</v>
       </c>
       <c r="B394" t="n">
-        <v>79.81</v>
+        <v>97.52</v>
       </c>
       <c r="C394" t="n">
-        <v>147.34</v>
+        <v>134.17</v>
       </c>
       <c r="D394" t="n">
-        <v>49.22</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="E394" t="n">
         <v>135.39</v>
@@ -7676,13 +7676,13 @@
         <v>45674</v>
       </c>
       <c r="B395" t="n">
-        <v>79.72</v>
+        <v>97.84</v>
       </c>
       <c r="C395" t="n">
-        <v>147.09</v>
+        <v>135.37</v>
       </c>
       <c r="D395" t="n">
-        <v>48.98</v>
+        <v>90.66</v>
       </c>
       <c r="E395" t="n">
         <v>135.07</v>
@@ -7693,13 +7693,13 @@
         <v>45677</v>
       </c>
       <c r="B396" t="n">
-        <v>79.56</v>
+        <v>98.06</v>
       </c>
       <c r="C396" t="n">
-        <v>146.66</v>
+        <v>133.88</v>
       </c>
       <c r="D396" t="n">
-        <v>48.97</v>
+        <v>90.78</v>
       </c>
       <c r="E396" t="n">
         <v>136.66</v>
@@ -7710,13 +7710,13 @@
         <v>45678</v>
       </c>
       <c r="B397" t="n">
-        <v>79.26000000000001</v>
+        <v>98.31</v>
       </c>
       <c r="C397" t="n">
-        <v>148.89</v>
+        <v>132.65</v>
       </c>
       <c r="D397" t="n">
-        <v>48.54</v>
+        <v>92.11</v>
       </c>
       <c r="E397" t="n">
         <v>138.91</v>
@@ -7727,13 +7727,13 @@
         <v>45679</v>
       </c>
       <c r="B398" t="n">
-        <v>78.91</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="C398" t="n">
-        <v>151.02</v>
+        <v>133.76</v>
       </c>
       <c r="D398" t="n">
-        <v>47.66</v>
+        <v>93.64</v>
       </c>
       <c r="E398" t="n">
         <v>131.9</v>
@@ -7744,13 +7744,13 @@
         <v>45680</v>
       </c>
       <c r="B399" t="n">
-        <v>78.98999999999999</v>
+        <v>98.75</v>
       </c>
       <c r="C399" t="n">
-        <v>151.47</v>
+        <v>129.19</v>
       </c>
       <c r="D399" t="n">
-        <v>48.34</v>
+        <v>91.56999999999999</v>
       </c>
       <c r="E399" t="n">
         <v>131.7</v>
@@ -7761,13 +7761,13 @@
         <v>45681</v>
       </c>
       <c r="B400" t="n">
-        <v>79.03</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="C400" t="n">
-        <v>148.48</v>
+        <v>128.31</v>
       </c>
       <c r="D400" t="n">
-        <v>49.24</v>
+        <v>89.39</v>
       </c>
       <c r="E400" t="n">
         <v>132.8</v>
@@ -7784,7 +7784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7833,6 +7833,31 @@
           <t>训练时长(分钟)</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>总数据天数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>训练集天数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>对照集天数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>训练集比例</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>对照集比例</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7847,17 +7872,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23.47</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.16</t>
+          <t>15.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -7872,7 +7897,26 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2071</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1656</v>
+      </c>
+      <c r="K2" t="n">
+        <v>415</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -7884,22 +7928,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>14.19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -7914,7 +7958,26 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2071</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1656</v>
+      </c>
+      <c r="K3" t="n">
+        <v>415</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -7931,17 +7994,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>19.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -7956,7 +8019,26 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2071</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1656</v>
+      </c>
+      <c r="K4" t="n">
+        <v>415</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -8049,12 +8131,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>filters: [64, 32, 16], kernel_size: 3, dropout: 0.2, epochs: 100, batch_size: 32, optimizer: adam, loss: mse</t>
+          <t>filters: 64, kernel_size: 3, dropout: 0.2, epochs: 100, batch_size: 32, learning_rate: 0.001, patience: 15, reduce_lr_patience: 8, reduce_lr_factor: 0.5, min_lr: 1e-06, optimizer: adam, loss: huber</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
